--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -18,6 +18,9 @@
     <sheet name="R2.09 Méthodes numériques" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="R2.10 Introduction à la gestion des systèmes d'information" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="R2.11 Introduction au droit" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R2.12 Anglais d'entreprise" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R2.13 Communication avec le milieu professionnel" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R2.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -7885,6 +7888,5379 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.28515625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="n"/>
+      <c r="B1" s="28" t="n"/>
+      <c r="C1" s="28" t="n"/>
+      <c r="D1" s="28" t="n"/>
+      <c r="E1" s="28" t="n"/>
+      <c r="F1" s="28" t="n"/>
+      <c r="G1" s="28" t="n"/>
+      <c r="H1" s="28" t="n"/>
+      <c r="I1" s="28" t="n"/>
+      <c r="J1" s="28" t="n"/>
+      <c r="K1" s="28" t="n"/>
+      <c r="L1" s="28" t="n"/>
+      <c r="M1" s="28" t="n"/>
+      <c r="N1" s="28" t="n"/>
+      <c r="O1" s="28" t="n"/>
+      <c r="P1" s="28" t="n"/>
+      <c r="Q1" s="28" t="n"/>
+      <c r="R1" s="28" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>R2.12 Anglais d'entreprise</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="n"/>
+      <c r="F2" s="42" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Josée VAQUIERI PORTOLANO</t>
+        </is>
+      </c>
+      <c r="H2" s="28" t="n"/>
+      <c r="I2" s="28" t="n"/>
+      <c r="J2" s="28" t="n"/>
+      <c r="K2" s="28" t="n"/>
+      <c r="L2" s="28" t="n"/>
+      <c r="M2" s="28" t="n"/>
+      <c r="N2" s="28" t="n"/>
+      <c r="O2" s="28" t="n"/>
+      <c r="P2" s="28" t="n"/>
+      <c r="Q2" s="28" t="n"/>
+      <c r="R2" s="28" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="n"/>
+      <c r="B3" s="28" t="n"/>
+      <c r="C3" s="28" t="n"/>
+      <c r="D3" s="28" t="n"/>
+      <c r="E3" s="28" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="28" t="n"/>
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="28" t="n"/>
+      <c r="J3" s="28" t="n"/>
+      <c r="K3" s="28" t="n"/>
+      <c r="L3" s="28" t="n"/>
+      <c r="M3" s="28" t="n"/>
+      <c r="N3" s="28" t="n"/>
+      <c r="O3" s="28" t="n"/>
+      <c r="P3" s="28" t="n"/>
+      <c r="Q3" s="28" t="n"/>
+      <c r="R3" s="28" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="42" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="n"/>
+      <c r="F4" s="28" t="n"/>
+      <c r="G4" s="28" t="n"/>
+      <c r="H4" s="28" t="n"/>
+      <c r="I4" s="28" t="n"/>
+      <c r="J4" s="28" t="n"/>
+      <c r="K4" s="28" t="n"/>
+      <c r="L4" s="28" t="n"/>
+      <c r="M4" s="28" t="n"/>
+      <c r="N4" s="28" t="n"/>
+      <c r="O4" s="28" t="n"/>
+      <c r="P4" s="28" t="n"/>
+      <c r="Q4" s="28" t="n"/>
+      <c r="R4" s="28" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="28" t="n"/>
+      <c r="K5" s="28" t="n"/>
+      <c r="L5" s="28" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="28" t="n"/>
+      <c r="D6" s="28" t="n"/>
+      <c r="E6" s="28" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="28" t="n"/>
+      <c r="H6" s="28" t="n"/>
+      <c r="I6" s="28" t="n"/>
+      <c r="J6" s="28" t="n"/>
+      <c r="K6" s="28" t="n"/>
+      <c r="L6" s="28" t="n"/>
+      <c r="M6" s="28" t="n"/>
+      <c r="N6" s="28" t="n"/>
+      <c r="O6" s="28" t="n"/>
+      <c r="P6" s="28" t="n"/>
+      <c r="Q6" s="28" t="n"/>
+      <c r="R6" s="28" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="42" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="28" t="n"/>
+      <c r="N7" s="28" t="n"/>
+      <c r="O7" s="28" t="n"/>
+      <c r="P7" s="28" t="n"/>
+      <c r="Q7" s="28" t="n"/>
+      <c r="R7" s="28" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="n"/>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="28" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="28" t="n"/>
+      <c r="G8" s="28" t="n"/>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="28" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="28" t="n"/>
+      <c r="M8" s="28" t="n"/>
+      <c r="N8" s="28" t="n"/>
+      <c r="O8" s="28" t="n"/>
+      <c r="P8" s="28" t="n"/>
+      <c r="Q8" s="28" t="n"/>
+      <c r="R8" s="28" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="n"/>
+      <c r="C9" s="28" t="n"/>
+      <c r="D9" s="28" t="n"/>
+      <c r="E9" s="28" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="28" t="n"/>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="28" t="n"/>
+      <c r="K9" s="28" t="n"/>
+      <c r="L9" s="28" t="n"/>
+      <c r="M9" s="28" t="n"/>
+      <c r="N9" s="28" t="n"/>
+      <c r="O9" s="28" t="n"/>
+      <c r="P9" s="28" t="n"/>
+      <c r="Q9" s="28" t="n"/>
+      <c r="R9" s="28" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="n"/>
+      <c r="C10" s="28" t="n"/>
+      <c r="D10" s="28" t="n"/>
+      <c r="E10" s="28" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="28" t="n"/>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="28" t="n"/>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28" t="n"/>
+      <c r="M10" s="28" t="n"/>
+      <c r="N10" s="28" t="n"/>
+      <c r="O10" s="28" t="n"/>
+      <c r="P10" s="28" t="n"/>
+      <c r="Q10" s="28" t="n"/>
+      <c r="R10" s="28" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="n"/>
+      <c r="B11" s="28" t="n"/>
+      <c r="C11" s="28" t="n"/>
+      <c r="D11" s="28" t="n"/>
+      <c r="E11" s="28" t="n"/>
+      <c r="F11" s="28" t="n"/>
+      <c r="G11" s="28" t="n"/>
+      <c r="H11" s="28" t="n"/>
+      <c r="I11" s="28" t="n"/>
+      <c r="J11" s="28" t="n"/>
+      <c r="K11" s="28" t="n"/>
+      <c r="L11" s="28" t="n"/>
+      <c r="M11" s="28" t="n"/>
+      <c r="N11" s="28" t="n"/>
+      <c r="O11" s="28" t="n"/>
+      <c r="P11" s="28" t="n"/>
+      <c r="Q11" s="28" t="n"/>
+      <c r="R11" s="28" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="28" t="n"/>
+      <c r="B12" s="28" t="n"/>
+      <c r="C12" s="28" t="n"/>
+      <c r="D12" s="28" t="n"/>
+      <c r="E12" s="28" t="n"/>
+      <c r="F12" s="28" t="n"/>
+      <c r="G12" s="28" t="n"/>
+      <c r="H12" s="28" t="n"/>
+      <c r="I12" s="28" t="n"/>
+      <c r="J12" s="28" t="n"/>
+      <c r="K12" s="28" t="n"/>
+      <c r="L12" s="28" t="n"/>
+      <c r="M12" s="28" t="n"/>
+      <c r="N12" s="28" t="n"/>
+      <c r="O12" s="28" t="n"/>
+      <c r="P12" s="28" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="28" t="n"/>
+    </row>
+    <row r="13" ht="41.25" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="28" t="n"/>
+      <c r="D13" s="28" t="n"/>
+      <c r="E13" s="28" t="n"/>
+      <c r="F13" s="28" t="n"/>
+      <c r="G13" s="28" t="n"/>
+      <c r="H13" s="28" t="n"/>
+      <c r="I13" s="28" t="n"/>
+      <c r="J13" s="28" t="n"/>
+      <c r="K13" s="28" t="n"/>
+      <c r="L13" s="28" t="n"/>
+      <c r="M13" s="28" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="28" t="n"/>
+      <c r="P13" s="28" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="28" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="28" t="n"/>
+      <c r="D14" s="30" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="32" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="28" t="n"/>
+      <c r="L14" s="28" t="n"/>
+      <c r="M14" s="28" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="28" t="n"/>
+      <c r="P14" s="28" t="n"/>
+      <c r="Q14" s="28" t="n"/>
+      <c r="R14" s="28" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="28" t="n"/>
+      <c r="D15" s="33" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="35" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="28" t="n"/>
+      <c r="L15" s="28" t="n"/>
+      <c r="M15" s="28" t="n"/>
+      <c r="N15" s="28" t="n"/>
+      <c r="O15" s="28" t="n"/>
+      <c r="P15" s="28" t="n"/>
+      <c r="Q15" s="28" t="n"/>
+      <c r="R15" s="28" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="28" t="n"/>
+      <c r="D16" s="28" t="n"/>
+      <c r="E16" s="28" t="n"/>
+      <c r="F16" s="28" t="n"/>
+      <c r="G16" s="28" t="n"/>
+      <c r="H16" s="28" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="28" t="n"/>
+      <c r="K16" s="28" t="n"/>
+      <c r="L16" s="28" t="n"/>
+      <c r="M16" s="28" t="n"/>
+      <c r="N16" s="28" t="n"/>
+      <c r="O16" s="28" t="n"/>
+      <c r="P16" s="28" t="n"/>
+      <c r="Q16" s="28" t="n"/>
+      <c r="R16" s="28" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="28" t="n"/>
+      <c r="D17" s="28" t="n"/>
+      <c r="E17" s="28" t="n"/>
+      <c r="F17" s="28" t="n"/>
+      <c r="G17" s="28" t="n"/>
+      <c r="H17" s="28" t="n"/>
+      <c r="I17" s="28" t="n"/>
+      <c r="J17" s="28" t="n"/>
+      <c r="K17" s="28" t="n"/>
+      <c r="L17" s="28" t="n"/>
+      <c r="M17" s="28" t="n"/>
+      <c r="N17" s="28" t="n"/>
+      <c r="O17" s="28" t="n"/>
+      <c r="P17" s="28" t="n"/>
+      <c r="Q17" s="28" t="n"/>
+      <c r="R17" s="28" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="28" t="n"/>
+      <c r="D18" s="28" t="n"/>
+      <c r="E18" s="28" t="n"/>
+      <c r="F18" s="28" t="n"/>
+      <c r="G18" s="28" t="n"/>
+      <c r="H18" s="28" t="n"/>
+      <c r="I18" s="28" t="n"/>
+      <c r="J18" s="28" t="n"/>
+      <c r="K18" s="28" t="n"/>
+      <c r="L18" s="28" t="n"/>
+      <c r="M18" s="28" t="n"/>
+      <c r="N18" s="28" t="n"/>
+      <c r="O18" s="28" t="n"/>
+      <c r="P18" s="28" t="n"/>
+      <c r="Q18" s="28" t="n"/>
+      <c r="R18" s="28" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="28" t="n"/>
+      <c r="D19" s="39" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="28" t="n"/>
+      <c r="H19" s="28" t="n"/>
+      <c r="I19" s="28" t="n"/>
+      <c r="J19" s="28" t="n"/>
+      <c r="K19" s="28" t="n"/>
+      <c r="L19" s="28" t="n"/>
+      <c r="M19" s="28" t="n"/>
+      <c r="N19" s="28" t="n"/>
+      <c r="O19" s="28" t="n"/>
+      <c r="P19" s="28" t="n"/>
+      <c r="Q19" s="28" t="n"/>
+      <c r="R19" s="28" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="28" t="n"/>
+      <c r="D20" s="41" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="38" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="28" t="n"/>
+      <c r="H20" s="28" t="n"/>
+      <c r="I20" s="28" t="n"/>
+      <c r="J20" s="28" t="n"/>
+      <c r="K20" s="28" t="n"/>
+      <c r="L20" s="28" t="n"/>
+      <c r="M20" s="28" t="n"/>
+      <c r="N20" s="28" t="n"/>
+      <c r="O20" s="28" t="n"/>
+      <c r="P20" s="28" t="n"/>
+      <c r="Q20" s="28" t="n"/>
+      <c r="R20" s="28" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="28" t="n"/>
+      <c r="D21" s="41" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="38" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="28" t="n"/>
+      <c r="H21" s="28" t="n"/>
+      <c r="I21" s="28" t="n"/>
+      <c r="J21" s="28" t="n"/>
+      <c r="K21" s="28" t="n"/>
+      <c r="L21" s="28" t="n"/>
+      <c r="M21" s="28" t="n"/>
+      <c r="N21" s="28" t="n"/>
+      <c r="O21" s="28" t="n"/>
+      <c r="P21" s="28" t="n"/>
+      <c r="Q21" s="28" t="n"/>
+      <c r="R21" s="28" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="28" t="n"/>
+      <c r="D22" s="33" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="28" t="n"/>
+      <c r="H22" s="28" t="n"/>
+      <c r="I22" s="28" t="n"/>
+      <c r="J22" s="28" t="n"/>
+      <c r="K22" s="28" t="n"/>
+      <c r="L22" s="28" t="n"/>
+      <c r="M22" s="28" t="n"/>
+      <c r="N22" s="28" t="n"/>
+      <c r="O22" s="28" t="n"/>
+      <c r="P22" s="28" t="n"/>
+      <c r="Q22" s="28" t="n"/>
+      <c r="R22" s="28" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="28" t="n"/>
+      <c r="D23" s="28" t="n"/>
+      <c r="E23" s="28" t="n"/>
+      <c r="F23" s="28" t="n"/>
+      <c r="G23" s="28" t="n"/>
+      <c r="H23" s="28" t="n"/>
+      <c r="I23" s="28" t="n"/>
+      <c r="J23" s="28" t="n"/>
+      <c r="K23" s="28" t="n"/>
+      <c r="L23" s="28" t="n"/>
+      <c r="M23" s="28" t="n"/>
+      <c r="N23" s="28" t="n"/>
+      <c r="O23" s="28" t="n"/>
+      <c r="P23" s="28" t="n"/>
+      <c r="Q23" s="28" t="n"/>
+      <c r="R23" s="28" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="28" t="n"/>
+      <c r="E24" s="28" t="n"/>
+      <c r="F24" s="28" t="n"/>
+      <c r="G24" s="28" t="n"/>
+      <c r="H24" s="28" t="n"/>
+      <c r="I24" s="28" t="n"/>
+      <c r="J24" s="28" t="n"/>
+      <c r="K24" s="28" t="n"/>
+      <c r="L24" s="28" t="n"/>
+      <c r="M24" s="28" t="n"/>
+      <c r="N24" s="28" t="n"/>
+      <c r="O24" s="28" t="n"/>
+      <c r="P24" s="28" t="n"/>
+      <c r="Q24" s="28" t="n"/>
+      <c r="R24" s="28" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="28" t="n"/>
+      <c r="D25" s="28" t="n"/>
+      <c r="G25" s="28" t="n"/>
+      <c r="H25" s="28" t="n"/>
+      <c r="I25" s="28" t="n"/>
+      <c r="J25" s="28" t="n"/>
+      <c r="K25" s="28" t="n"/>
+      <c r="L25" s="28" t="n"/>
+      <c r="M25" s="28" t="n"/>
+      <c r="N25" s="28" t="n"/>
+      <c r="O25" s="28" t="n"/>
+      <c r="P25" s="28" t="n"/>
+      <c r="Q25" s="28" t="n"/>
+      <c r="R25" s="28" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="28" t="n"/>
+      <c r="D26" s="28" t="n"/>
+      <c r="E26" s="28" t="n"/>
+      <c r="F26" s="28" t="n"/>
+      <c r="G26" s="28" t="n"/>
+      <c r="H26" s="28" t="n"/>
+      <c r="I26" s="28" t="n"/>
+      <c r="J26" s="28" t="n"/>
+      <c r="K26" s="28" t="n"/>
+      <c r="L26" s="28" t="n"/>
+      <c r="M26" s="28" t="n"/>
+      <c r="N26" s="28" t="n"/>
+      <c r="O26" s="28" t="n"/>
+      <c r="P26" s="28" t="n"/>
+      <c r="Q26" s="28" t="n"/>
+      <c r="R26" s="28" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="28" t="n"/>
+      <c r="D27" s="39" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="37" t="n"/>
+      <c r="I27" s="28" t="n"/>
+      <c r="J27" s="28" t="n"/>
+      <c r="K27" s="28" t="n"/>
+      <c r="L27" s="28" t="n"/>
+      <c r="M27" s="28" t="n"/>
+      <c r="N27" s="28" t="n"/>
+      <c r="O27" s="28" t="n"/>
+      <c r="P27" s="28" t="n"/>
+      <c r="Q27" s="28" t="n"/>
+      <c r="R27" s="28" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="28" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="28" t="n"/>
+      <c r="J28" s="28" t="n"/>
+      <c r="K28" s="28" t="n"/>
+      <c r="L28" s="28" t="n"/>
+      <c r="M28" s="28" t="n"/>
+      <c r="N28" s="28" t="n"/>
+      <c r="O28" s="28" t="n"/>
+      <c r="P28" s="28" t="n"/>
+      <c r="Q28" s="28" t="n"/>
+      <c r="R28" s="28" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="28" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="28" t="n"/>
+      <c r="J29" s="28" t="n"/>
+      <c r="K29" s="28" t="n"/>
+      <c r="L29" s="28" t="n"/>
+      <c r="M29" s="28" t="n"/>
+      <c r="N29" s="28" t="n"/>
+      <c r="O29" s="28" t="n"/>
+      <c r="P29" s="28" t="n"/>
+      <c r="Q29" s="28" t="n"/>
+      <c r="R29" s="28" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="28" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="28" t="n"/>
+      <c r="J30" s="28" t="n"/>
+      <c r="K30" s="28" t="n"/>
+      <c r="L30" s="28" t="n"/>
+      <c r="M30" s="28" t="n"/>
+      <c r="N30" s="28" t="n"/>
+      <c r="O30" s="28" t="n"/>
+      <c r="P30" s="28" t="n"/>
+      <c r="Q30" s="28" t="n"/>
+      <c r="R30" s="28" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="28" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="28" t="n"/>
+      <c r="J31" s="28" t="n"/>
+      <c r="K31" s="28" t="n"/>
+      <c r="L31" s="28" t="n"/>
+      <c r="M31" s="28" t="n"/>
+      <c r="N31" s="28" t="n"/>
+      <c r="O31" s="28" t="n"/>
+      <c r="P31" s="28" t="n"/>
+      <c r="Q31" s="28" t="n"/>
+      <c r="R31" s="28" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="28" t="n"/>
+      <c r="B32" s="28" t="n"/>
+      <c r="C32" s="28" t="n"/>
+      <c r="D32" s="28" t="n"/>
+      <c r="E32" s="28" t="n"/>
+      <c r="F32" s="28" t="n"/>
+      <c r="G32" s="28" t="n"/>
+      <c r="H32" s="28" t="n"/>
+      <c r="I32" s="28" t="n"/>
+      <c r="J32" s="28" t="n"/>
+      <c r="K32" s="28" t="n"/>
+      <c r="L32" s="28" t="n"/>
+      <c r="M32" s="28" t="n"/>
+      <c r="N32" s="28" t="n"/>
+      <c r="O32" s="28" t="n"/>
+      <c r="P32" s="28" t="n"/>
+      <c r="Q32" s="28" t="n"/>
+      <c r="R32" s="28" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="42" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="29" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="n"/>
+      <c r="D33" s="28" t="n"/>
+      <c r="E33" s="28" t="n"/>
+      <c r="F33" s="28" t="n"/>
+      <c r="G33" s="28" t="n"/>
+      <c r="H33" s="28" t="n"/>
+      <c r="I33" s="28" t="n"/>
+      <c r="J33" s="28" t="n"/>
+      <c r="K33" s="28" t="n"/>
+      <c r="L33" s="28" t="n"/>
+      <c r="M33" s="28" t="n"/>
+      <c r="N33" s="28" t="n"/>
+      <c r="O33" s="28" t="n"/>
+      <c r="P33" s="28" t="n"/>
+      <c r="Q33" s="28" t="n"/>
+      <c r="R33" s="28" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="28" t="n"/>
+      <c r="D34" s="28" t="n"/>
+      <c r="E34" s="28" t="n"/>
+      <c r="F34" s="28" t="n"/>
+      <c r="G34" s="28" t="n"/>
+      <c r="H34" s="28" t="n"/>
+      <c r="I34" s="28" t="n"/>
+      <c r="J34" s="28" t="n"/>
+      <c r="K34" s="28" t="n"/>
+      <c r="L34" s="28" t="n"/>
+      <c r="M34" s="28" t="n"/>
+      <c r="N34" s="28" t="n"/>
+      <c r="O34" s="28" t="n"/>
+      <c r="P34" s="28" t="n"/>
+      <c r="Q34" s="28" t="n"/>
+      <c r="R34" s="28" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="28" t="n"/>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="28" t="n"/>
+      <c r="E35" s="28" t="n"/>
+      <c r="F35" s="28" t="n"/>
+      <c r="G35" s="28" t="n"/>
+      <c r="H35" s="28" t="n"/>
+      <c r="I35" s="28" t="n"/>
+      <c r="J35" s="28" t="n"/>
+      <c r="K35" s="28" t="n"/>
+      <c r="L35" s="28" t="n"/>
+      <c r="M35" s="28" t="n"/>
+      <c r="N35" s="28" t="n"/>
+      <c r="O35" s="28" t="n"/>
+      <c r="P35" s="28" t="n"/>
+      <c r="Q35" s="28" t="n"/>
+      <c r="R35" s="28" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="28" t="n"/>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="n"/>
+      <c r="E36" s="28" t="n"/>
+      <c r="F36" s="28" t="n"/>
+      <c r="G36" s="28" t="n"/>
+      <c r="H36" s="28" t="n"/>
+      <c r="I36" s="28" t="n"/>
+      <c r="J36" s="28" t="n"/>
+      <c r="K36" s="28" t="n"/>
+      <c r="L36" s="28" t="n"/>
+      <c r="M36" s="28" t="n"/>
+      <c r="N36" s="28" t="n"/>
+      <c r="O36" s="28" t="n"/>
+      <c r="P36" s="28" t="n"/>
+      <c r="Q36" s="28" t="n"/>
+      <c r="R36" s="28" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="28" t="n"/>
+      <c r="B37" s="29" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="n"/>
+      <c r="E37" s="28" t="n"/>
+      <c r="F37" s="28" t="n"/>
+      <c r="G37" s="28" t="n"/>
+      <c r="H37" s="28" t="n"/>
+      <c r="I37" s="28" t="n"/>
+      <c r="J37" s="28" t="n"/>
+      <c r="K37" s="28" t="n"/>
+      <c r="L37" s="28" t="n"/>
+      <c r="M37" s="28" t="n"/>
+      <c r="N37" s="28" t="n"/>
+      <c r="O37" s="28" t="n"/>
+      <c r="P37" s="28" t="n"/>
+      <c r="Q37" s="28" t="n"/>
+      <c r="R37" s="28" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="28" t="n"/>
+      <c r="B38" s="28" t="n"/>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="28" t="n"/>
+      <c r="E38" s="28" t="n"/>
+      <c r="F38" s="28" t="n"/>
+      <c r="G38" s="28" t="n"/>
+      <c r="H38" s="28" t="n"/>
+      <c r="I38" s="28" t="n"/>
+      <c r="J38" s="28" t="n"/>
+      <c r="K38" s="28" t="n"/>
+      <c r="L38" s="28" t="n"/>
+      <c r="M38" s="28" t="n"/>
+      <c r="N38" s="28" t="n"/>
+      <c r="O38" s="28" t="n"/>
+      <c r="P38" s="28" t="n"/>
+      <c r="Q38" s="28" t="n"/>
+      <c r="R38" s="28" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="28" t="n"/>
+      <c r="B39" s="28" t="n"/>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="n"/>
+      <c r="E39" s="28" t="n"/>
+      <c r="F39" s="28" t="n"/>
+      <c r="G39" s="28" t="n"/>
+      <c r="H39" s="28" t="n"/>
+      <c r="I39" s="28" t="n"/>
+      <c r="J39" s="28" t="n"/>
+      <c r="K39" s="28" t="n"/>
+      <c r="L39" s="28" t="n"/>
+      <c r="M39" s="28" t="n"/>
+      <c r="N39" s="28" t="n"/>
+      <c r="O39" s="28" t="n"/>
+      <c r="P39" s="28" t="n"/>
+      <c r="Q39" s="28" t="n"/>
+      <c r="R39" s="28" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="28" t="n"/>
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="28" t="n"/>
+      <c r="D40" s="28" t="n"/>
+      <c r="E40" s="28" t="n"/>
+      <c r="F40" s="28" t="n"/>
+      <c r="G40" s="28" t="n"/>
+      <c r="H40" s="28" t="n"/>
+      <c r="I40" s="28" t="n"/>
+      <c r="J40" s="28" t="n"/>
+      <c r="K40" s="28" t="n"/>
+      <c r="L40" s="28" t="n"/>
+      <c r="M40" s="28" t="n"/>
+      <c r="N40" s="28" t="n"/>
+      <c r="O40" s="28" t="n"/>
+      <c r="P40" s="28" t="n"/>
+      <c r="Q40" s="28" t="n"/>
+      <c r="R40" s="28" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="28" t="n"/>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="n"/>
+      <c r="E41" s="28" t="n"/>
+      <c r="F41" s="28" t="n"/>
+      <c r="G41" s="28" t="n"/>
+      <c r="H41" s="28" t="n"/>
+      <c r="I41" s="28" t="n"/>
+      <c r="J41" s="28" t="n"/>
+      <c r="K41" s="28" t="n"/>
+      <c r="L41" s="28" t="n"/>
+      <c r="M41" s="28" t="n"/>
+      <c r="N41" s="28" t="n"/>
+      <c r="O41" s="28" t="n"/>
+      <c r="P41" s="28" t="n"/>
+      <c r="Q41" s="28" t="n"/>
+      <c r="R41" s="28" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="28" t="n"/>
+      <c r="B42" s="28" t="n"/>
+      <c r="C42" s="28" t="n"/>
+      <c r="D42" s="28" t="n"/>
+      <c r="E42" s="28" t="n"/>
+      <c r="F42" s="28" t="n"/>
+      <c r="G42" s="28" t="n"/>
+      <c r="H42" s="28" t="n"/>
+      <c r="I42" s="28" t="n"/>
+      <c r="J42" s="28" t="n"/>
+      <c r="K42" s="28" t="n"/>
+      <c r="L42" s="28" t="n"/>
+      <c r="M42" s="28" t="n"/>
+      <c r="N42" s="28" t="n"/>
+      <c r="O42" s="28" t="n"/>
+      <c r="P42" s="28" t="n"/>
+      <c r="Q42" s="28" t="n"/>
+      <c r="R42" s="28" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="28" t="n"/>
+      <c r="B43" s="28" t="n"/>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="28" t="n"/>
+      <c r="E43" s="28" t="n"/>
+      <c r="F43" s="28" t="n"/>
+      <c r="G43" s="28" t="n"/>
+      <c r="H43" s="28" t="n"/>
+      <c r="I43" s="28" t="n"/>
+      <c r="J43" s="28" t="n"/>
+      <c r="K43" s="28" t="n"/>
+      <c r="L43" s="28" t="n"/>
+      <c r="M43" s="28" t="n"/>
+      <c r="N43" s="28" t="n"/>
+      <c r="O43" s="28" t="n"/>
+      <c r="P43" s="28" t="n"/>
+      <c r="Q43" s="28" t="n"/>
+      <c r="R43" s="28" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="28" t="n"/>
+      <c r="B44" s="28" t="n"/>
+      <c r="C44" s="28" t="n"/>
+      <c r="D44" s="28" t="n"/>
+      <c r="E44" s="28" t="n"/>
+      <c r="F44" s="28" t="n"/>
+      <c r="G44" s="28" t="n"/>
+      <c r="H44" s="28" t="n"/>
+      <c r="I44" s="28" t="n"/>
+      <c r="J44" s="28" t="n"/>
+      <c r="K44" s="28" t="n"/>
+      <c r="L44" s="28" t="n"/>
+      <c r="M44" s="28" t="n"/>
+      <c r="N44" s="28" t="n"/>
+      <c r="O44" s="28" t="n"/>
+      <c r="P44" s="28" t="n"/>
+      <c r="Q44" s="28" t="n"/>
+      <c r="R44" s="28" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="28" t="n"/>
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
+      <c r="E45" s="28" t="n"/>
+      <c r="F45" s="28" t="n"/>
+      <c r="G45" s="28" t="n"/>
+      <c r="H45" s="28" t="n"/>
+      <c r="I45" s="28" t="n"/>
+      <c r="J45" s="28" t="n"/>
+      <c r="K45" s="28" t="n"/>
+      <c r="L45" s="28" t="n"/>
+      <c r="M45" s="28" t="n"/>
+      <c r="N45" s="28" t="n"/>
+      <c r="O45" s="28" t="n"/>
+      <c r="P45" s="28" t="n"/>
+      <c r="Q45" s="28" t="n"/>
+      <c r="R45" s="28" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="28" t="n"/>
+      <c r="B46" s="28" t="n"/>
+      <c r="C46" s="28" t="n"/>
+      <c r="D46" s="28" t="n"/>
+      <c r="E46" s="28" t="n"/>
+      <c r="F46" s="28" t="n"/>
+      <c r="G46" s="28" t="n"/>
+      <c r="H46" s="28" t="n"/>
+      <c r="I46" s="28" t="n"/>
+      <c r="J46" s="28" t="n"/>
+      <c r="K46" s="28" t="n"/>
+      <c r="L46" s="28" t="n"/>
+      <c r="M46" s="28" t="n"/>
+      <c r="N46" s="28" t="n"/>
+      <c r="O46" s="28" t="n"/>
+      <c r="P46" s="28" t="n"/>
+      <c r="Q46" s="28" t="n"/>
+      <c r="R46" s="28" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="28" t="n"/>
+      <c r="B47" s="28" t="n"/>
+      <c r="C47" s="28" t="n"/>
+      <c r="D47" s="28" t="n"/>
+      <c r="E47" s="28" t="n"/>
+      <c r="F47" s="28" t="n"/>
+      <c r="G47" s="28" t="n"/>
+      <c r="H47" s="28" t="n"/>
+      <c r="I47" s="28" t="n"/>
+      <c r="J47" s="28" t="n"/>
+      <c r="K47" s="28" t="n"/>
+      <c r="L47" s="28" t="n"/>
+      <c r="M47" s="28" t="n"/>
+      <c r="N47" s="28" t="n"/>
+      <c r="O47" s="28" t="n"/>
+      <c r="P47" s="28" t="n"/>
+      <c r="Q47" s="28" t="n"/>
+      <c r="R47" s="28" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="28" t="n"/>
+      <c r="B48" s="28" t="n"/>
+      <c r="C48" s="28" t="n"/>
+      <c r="D48" s="28" t="n"/>
+      <c r="E48" s="28" t="n"/>
+      <c r="F48" s="28" t="n"/>
+      <c r="G48" s="28" t="n"/>
+      <c r="H48" s="28" t="n"/>
+      <c r="I48" s="28" t="n"/>
+      <c r="J48" s="28" t="n"/>
+      <c r="K48" s="28" t="n"/>
+      <c r="L48" s="28" t="n"/>
+      <c r="M48" s="28" t="n"/>
+      <c r="N48" s="28" t="n"/>
+      <c r="O48" s="28" t="n"/>
+      <c r="P48" s="28" t="n"/>
+      <c r="Q48" s="28" t="n"/>
+      <c r="R48" s="28" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="28" t="n"/>
+      <c r="B49" s="28" t="n"/>
+      <c r="C49" s="28" t="n"/>
+      <c r="D49" s="28" t="n"/>
+      <c r="E49" s="28" t="n"/>
+      <c r="F49" s="28" t="n"/>
+      <c r="G49" s="28" t="n"/>
+      <c r="H49" s="28" t="n"/>
+      <c r="I49" s="28" t="n"/>
+      <c r="J49" s="28" t="n"/>
+      <c r="K49" s="28" t="n"/>
+      <c r="L49" s="28" t="n"/>
+      <c r="M49" s="28" t="n"/>
+      <c r="N49" s="28" t="n"/>
+      <c r="O49" s="28" t="n"/>
+      <c r="P49" s="28" t="n"/>
+      <c r="Q49" s="28" t="n"/>
+      <c r="R49" s="28" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="28" t="n"/>
+      <c r="B50" s="28" t="n"/>
+      <c r="C50" s="28" t="n"/>
+      <c r="D50" s="28" t="n"/>
+      <c r="E50" s="28" t="n"/>
+      <c r="F50" s="28" t="n"/>
+      <c r="G50" s="28" t="n"/>
+      <c r="H50" s="28" t="n"/>
+      <c r="I50" s="28" t="n"/>
+      <c r="J50" s="28" t="n"/>
+      <c r="K50" s="28" t="n"/>
+      <c r="L50" s="28" t="n"/>
+      <c r="M50" s="28" t="n"/>
+      <c r="N50" s="28" t="n"/>
+      <c r="O50" s="28" t="n"/>
+      <c r="P50" s="28" t="n"/>
+      <c r="Q50" s="28" t="n"/>
+      <c r="R50" s="28" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="28" t="n"/>
+      <c r="B51" s="28" t="n"/>
+      <c r="C51" s="28" t="n"/>
+      <c r="D51" s="29" t="n"/>
+      <c r="E51" s="28" t="n"/>
+      <c r="F51" s="28" t="n"/>
+      <c r="G51" s="28" t="n"/>
+      <c r="H51" s="28" t="n"/>
+      <c r="I51" s="28" t="n"/>
+      <c r="J51" s="28" t="n"/>
+      <c r="K51" s="28" t="n"/>
+      <c r="L51" s="28" t="n"/>
+      <c r="M51" s="28" t="n"/>
+      <c r="N51" s="28" t="n"/>
+      <c r="O51" s="28" t="n"/>
+      <c r="P51" s="28" t="n"/>
+      <c r="Q51" s="28" t="n"/>
+      <c r="R51" s="28" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="28" t="n"/>
+      <c r="B52" s="28" t="n"/>
+      <c r="C52" s="28" t="n"/>
+      <c r="D52" s="28" t="n"/>
+      <c r="E52" s="28" t="n"/>
+      <c r="F52" s="28" t="n"/>
+      <c r="G52" s="28" t="n"/>
+      <c r="H52" s="28" t="n"/>
+      <c r="I52" s="28" t="n"/>
+      <c r="J52" s="28" t="n"/>
+      <c r="K52" s="28" t="n"/>
+      <c r="L52" s="28" t="n"/>
+      <c r="M52" s="28" t="n"/>
+      <c r="N52" s="28" t="n"/>
+      <c r="O52" s="28" t="n"/>
+      <c r="P52" s="28" t="n"/>
+      <c r="Q52" s="28" t="n"/>
+      <c r="R52" s="28" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="42" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="29" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="28" t="n"/>
+      <c r="E53" s="28" t="n"/>
+      <c r="F53" s="28" t="n"/>
+      <c r="G53" s="28" t="n"/>
+      <c r="H53" s="28" t="n"/>
+      <c r="I53" s="28" t="n"/>
+      <c r="J53" s="28" t="n"/>
+      <c r="K53" s="28" t="n"/>
+      <c r="L53" s="28" t="n"/>
+      <c r="M53" s="28" t="n"/>
+      <c r="N53" s="28" t="n"/>
+      <c r="O53" s="28" t="n"/>
+      <c r="P53" s="28" t="n"/>
+      <c r="Q53" s="28" t="n"/>
+      <c r="R53" s="28" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="28" t="n"/>
+    </row>
+    <row r="55" ht="64.5" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P56" s="22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Q56" s="23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R56" s="23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P57" s="22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Q57" s="23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R57" s="23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="28" t="n"/>
+      <c r="B60" s="28" t="n"/>
+      <c r="C60" s="28" t="n"/>
+      <c r="D60" s="28" t="n"/>
+      <c r="E60" s="28" t="n"/>
+      <c r="F60" s="28" t="n"/>
+      <c r="G60" s="28" t="n"/>
+      <c r="H60" s="28" t="n"/>
+      <c r="I60" s="28" t="n"/>
+      <c r="J60" s="28" t="n"/>
+      <c r="K60" s="28" t="n"/>
+      <c r="L60" s="28" t="n"/>
+      <c r="M60" s="28" t="n"/>
+      <c r="N60" s="28" t="n"/>
+      <c r="O60" s="28" t="n"/>
+      <c r="P60" s="28" t="n"/>
+      <c r="Q60" s="28" t="n"/>
+      <c r="R60" s="28" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="28" t="n"/>
+      <c r="B61" s="28" t="n"/>
+      <c r="C61" s="28" t="n"/>
+      <c r="D61" s="28" t="n"/>
+      <c r="E61" s="28" t="n"/>
+      <c r="F61" s="28" t="n"/>
+      <c r="G61" s="28" t="n"/>
+      <c r="H61" s="28" t="n"/>
+      <c r="I61" s="28" t="n"/>
+      <c r="J61" s="28" t="n"/>
+      <c r="K61" s="28" t="n"/>
+      <c r="L61" s="28" t="n"/>
+      <c r="M61" s="28" t="n"/>
+      <c r="N61" s="28" t="n"/>
+      <c r="O61" s="28" t="n"/>
+      <c r="P61" s="28" t="n"/>
+      <c r="Q61" s="28" t="n"/>
+      <c r="R61" s="28" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="42" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="29" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="28" t="n"/>
+      <c r="E62" s="28" t="n"/>
+      <c r="F62" s="28" t="n"/>
+      <c r="G62" s="28" t="n"/>
+      <c r="H62" s="28" t="n"/>
+      <c r="I62" s="28" t="n"/>
+      <c r="J62" s="28" t="n"/>
+      <c r="K62" s="28" t="n"/>
+      <c r="L62" s="28" t="n"/>
+      <c r="M62" s="28" t="n"/>
+      <c r="N62" s="28" t="n"/>
+      <c r="O62" s="28" t="n"/>
+      <c r="P62" s="28" t="n"/>
+      <c r="Q62" s="28" t="n"/>
+      <c r="R62" s="28" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="28" t="n"/>
+    </row>
+    <row r="64" ht="64.5" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="P65" s="22" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q65" s="23" t="n">
+        <v>98</v>
+      </c>
+      <c r="R65" s="23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.28515625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="n"/>
+      <c r="B1" s="28" t="n"/>
+      <c r="C1" s="28" t="n"/>
+      <c r="D1" s="28" t="n"/>
+      <c r="E1" s="28" t="n"/>
+      <c r="F1" s="28" t="n"/>
+      <c r="G1" s="28" t="n"/>
+      <c r="H1" s="28" t="n"/>
+      <c r="I1" s="28" t="n"/>
+      <c r="J1" s="28" t="n"/>
+      <c r="K1" s="28" t="n"/>
+      <c r="L1" s="28" t="n"/>
+      <c r="M1" s="28" t="n"/>
+      <c r="N1" s="28" t="n"/>
+      <c r="O1" s="28" t="n"/>
+      <c r="P1" s="28" t="n"/>
+      <c r="Q1" s="28" t="n"/>
+      <c r="R1" s="28" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>R2.13 Communication avec le milieu professionnel</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="n"/>
+      <c r="F2" s="42" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Alexandra SALOU</t>
+        </is>
+      </c>
+      <c r="H2" s="28" t="n"/>
+      <c r="I2" s="28" t="n"/>
+      <c r="J2" s="28" t="n"/>
+      <c r="K2" s="28" t="n"/>
+      <c r="L2" s="28" t="n"/>
+      <c r="M2" s="28" t="n"/>
+      <c r="N2" s="28" t="n"/>
+      <c r="O2" s="28" t="n"/>
+      <c r="P2" s="28" t="n"/>
+      <c r="Q2" s="28" t="n"/>
+      <c r="R2" s="28" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="n"/>
+      <c r="B3" s="28" t="n"/>
+      <c r="C3" s="28" t="n"/>
+      <c r="D3" s="28" t="n"/>
+      <c r="E3" s="28" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="28" t="n"/>
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="28" t="n"/>
+      <c r="J3" s="28" t="n"/>
+      <c r="K3" s="28" t="n"/>
+      <c r="L3" s="28" t="n"/>
+      <c r="M3" s="28" t="n"/>
+      <c r="N3" s="28" t="n"/>
+      <c r="O3" s="28" t="n"/>
+      <c r="P3" s="28" t="n"/>
+      <c r="Q3" s="28" t="n"/>
+      <c r="R3" s="28" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="42" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="n"/>
+      <c r="F4" s="28" t="n"/>
+      <c r="G4" s="28" t="n"/>
+      <c r="H4" s="28" t="n"/>
+      <c r="I4" s="28" t="n"/>
+      <c r="J4" s="28" t="n"/>
+      <c r="K4" s="28" t="n"/>
+      <c r="L4" s="28" t="n"/>
+      <c r="M4" s="28" t="n"/>
+      <c r="N4" s="28" t="n"/>
+      <c r="O4" s="28" t="n"/>
+      <c r="P4" s="28" t="n"/>
+      <c r="Q4" s="28" t="n"/>
+      <c r="R4" s="28" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="28" t="n"/>
+      <c r="K5" s="28" t="n"/>
+      <c r="L5" s="28" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="28" t="n"/>
+      <c r="D6" s="28" t="n"/>
+      <c r="E6" s="28" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="28" t="n"/>
+      <c r="H6" s="28" t="n"/>
+      <c r="I6" s="28" t="n"/>
+      <c r="J6" s="28" t="n"/>
+      <c r="K6" s="28" t="n"/>
+      <c r="L6" s="28" t="n"/>
+      <c r="M6" s="28" t="n"/>
+      <c r="N6" s="28" t="n"/>
+      <c r="O6" s="28" t="n"/>
+      <c r="P6" s="28" t="n"/>
+      <c r="Q6" s="28" t="n"/>
+      <c r="R6" s="28" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="42" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="28" t="n"/>
+      <c r="N7" s="28" t="n"/>
+      <c r="O7" s="28" t="n"/>
+      <c r="P7" s="28" t="n"/>
+      <c r="Q7" s="28" t="n"/>
+      <c r="R7" s="28" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="n"/>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="28" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="28" t="n"/>
+      <c r="G8" s="28" t="n"/>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="28" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="28" t="n"/>
+      <c r="M8" s="28" t="n"/>
+      <c r="N8" s="28" t="n"/>
+      <c r="O8" s="28" t="n"/>
+      <c r="P8" s="28" t="n"/>
+      <c r="Q8" s="28" t="n"/>
+      <c r="R8" s="28" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="n"/>
+      <c r="C9" s="28" t="n"/>
+      <c r="D9" s="28" t="n"/>
+      <c r="E9" s="28" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="28" t="n"/>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="28" t="n"/>
+      <c r="K9" s="28" t="n"/>
+      <c r="L9" s="28" t="n"/>
+      <c r="M9" s="28" t="n"/>
+      <c r="N9" s="28" t="n"/>
+      <c r="O9" s="28" t="n"/>
+      <c r="P9" s="28" t="n"/>
+      <c r="Q9" s="28" t="n"/>
+      <c r="R9" s="28" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="n"/>
+      <c r="C10" s="28" t="n"/>
+      <c r="D10" s="28" t="n"/>
+      <c r="E10" s="28" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="28" t="n"/>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="28" t="n"/>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28" t="n"/>
+      <c r="M10" s="28" t="n"/>
+      <c r="N10" s="28" t="n"/>
+      <c r="O10" s="28" t="n"/>
+      <c r="P10" s="28" t="n"/>
+      <c r="Q10" s="28" t="n"/>
+      <c r="R10" s="28" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="n"/>
+      <c r="B11" s="28" t="n"/>
+      <c r="C11" s="28" t="n"/>
+      <c r="D11" s="28" t="n"/>
+      <c r="E11" s="28" t="n"/>
+      <c r="F11" s="28" t="n"/>
+      <c r="G11" s="28" t="n"/>
+      <c r="H11" s="28" t="n"/>
+      <c r="I11" s="28" t="n"/>
+      <c r="J11" s="28" t="n"/>
+      <c r="K11" s="28" t="n"/>
+      <c r="L11" s="28" t="n"/>
+      <c r="M11" s="28" t="n"/>
+      <c r="N11" s="28" t="n"/>
+      <c r="O11" s="28" t="n"/>
+      <c r="P11" s="28" t="n"/>
+      <c r="Q11" s="28" t="n"/>
+      <c r="R11" s="28" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="28" t="n"/>
+      <c r="B12" s="28" t="n"/>
+      <c r="C12" s="28" t="n"/>
+      <c r="D12" s="28" t="n"/>
+      <c r="E12" s="28" t="n"/>
+      <c r="F12" s="28" t="n"/>
+      <c r="G12" s="28" t="n"/>
+      <c r="H12" s="28" t="n"/>
+      <c r="I12" s="28" t="n"/>
+      <c r="J12" s="28" t="n"/>
+      <c r="K12" s="28" t="n"/>
+      <c r="L12" s="28" t="n"/>
+      <c r="M12" s="28" t="n"/>
+      <c r="N12" s="28" t="n"/>
+      <c r="O12" s="28" t="n"/>
+      <c r="P12" s="28" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="28" t="n"/>
+    </row>
+    <row r="13" ht="41.25" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="28" t="n"/>
+      <c r="D13" s="28" t="n"/>
+      <c r="E13" s="28" t="n"/>
+      <c r="F13" s="28" t="n"/>
+      <c r="G13" s="28" t="n"/>
+      <c r="H13" s="28" t="n"/>
+      <c r="I13" s="28" t="n"/>
+      <c r="J13" s="28" t="n"/>
+      <c r="K13" s="28" t="n"/>
+      <c r="L13" s="28" t="n"/>
+      <c r="M13" s="28" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="28" t="n"/>
+      <c r="P13" s="28" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="28" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="28" t="n"/>
+      <c r="D14" s="30" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="32" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="28" t="n"/>
+      <c r="L14" s="28" t="n"/>
+      <c r="M14" s="28" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="28" t="n"/>
+      <c r="P14" s="28" t="n"/>
+      <c r="Q14" s="28" t="n"/>
+      <c r="R14" s="28" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="28" t="n"/>
+      <c r="D15" s="33" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="35" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="28" t="n"/>
+      <c r="L15" s="28" t="n"/>
+      <c r="M15" s="28" t="n"/>
+      <c r="N15" s="28" t="n"/>
+      <c r="O15" s="28" t="n"/>
+      <c r="P15" s="28" t="n"/>
+      <c r="Q15" s="28" t="n"/>
+      <c r="R15" s="28" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="28" t="n"/>
+      <c r="D16" s="28" t="n"/>
+      <c r="E16" s="28" t="n"/>
+      <c r="F16" s="28" t="n"/>
+      <c r="G16" s="28" t="n"/>
+      <c r="H16" s="28" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="28" t="n"/>
+      <c r="K16" s="28" t="n"/>
+      <c r="L16" s="28" t="n"/>
+      <c r="M16" s="28" t="n"/>
+      <c r="N16" s="28" t="n"/>
+      <c r="O16" s="28" t="n"/>
+      <c r="P16" s="28" t="n"/>
+      <c r="Q16" s="28" t="n"/>
+      <c r="R16" s="28" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="28" t="n"/>
+      <c r="D17" s="28" t="n"/>
+      <c r="E17" s="28" t="n"/>
+      <c r="F17" s="28" t="n"/>
+      <c r="G17" s="28" t="n"/>
+      <c r="H17" s="28" t="n"/>
+      <c r="I17" s="28" t="n"/>
+      <c r="J17" s="28" t="n"/>
+      <c r="K17" s="28" t="n"/>
+      <c r="L17" s="28" t="n"/>
+      <c r="M17" s="28" t="n"/>
+      <c r="N17" s="28" t="n"/>
+      <c r="O17" s="28" t="n"/>
+      <c r="P17" s="28" t="n"/>
+      <c r="Q17" s="28" t="n"/>
+      <c r="R17" s="28" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="28" t="n"/>
+      <c r="D18" s="28" t="n"/>
+      <c r="E18" s="28" t="n"/>
+      <c r="F18" s="28" t="n"/>
+      <c r="G18" s="28" t="n"/>
+      <c r="H18" s="28" t="n"/>
+      <c r="I18" s="28" t="n"/>
+      <c r="J18" s="28" t="n"/>
+      <c r="K18" s="28" t="n"/>
+      <c r="L18" s="28" t="n"/>
+      <c r="M18" s="28" t="n"/>
+      <c r="N18" s="28" t="n"/>
+      <c r="O18" s="28" t="n"/>
+      <c r="P18" s="28" t="n"/>
+      <c r="Q18" s="28" t="n"/>
+      <c r="R18" s="28" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="28" t="n"/>
+      <c r="D19" s="39" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="28" t="n"/>
+      <c r="H19" s="28" t="n"/>
+      <c r="I19" s="28" t="n"/>
+      <c r="J19" s="28" t="n"/>
+      <c r="K19" s="28" t="n"/>
+      <c r="L19" s="28" t="n"/>
+      <c r="M19" s="28" t="n"/>
+      <c r="N19" s="28" t="n"/>
+      <c r="O19" s="28" t="n"/>
+      <c r="P19" s="28" t="n"/>
+      <c r="Q19" s="28" t="n"/>
+      <c r="R19" s="28" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="28" t="n"/>
+      <c r="D20" s="41" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="38" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="28" t="n"/>
+      <c r="H20" s="28" t="n"/>
+      <c r="I20" s="28" t="n"/>
+      <c r="J20" s="28" t="n"/>
+      <c r="K20" s="28" t="n"/>
+      <c r="L20" s="28" t="n"/>
+      <c r="M20" s="28" t="n"/>
+      <c r="N20" s="28" t="n"/>
+      <c r="O20" s="28" t="n"/>
+      <c r="P20" s="28" t="n"/>
+      <c r="Q20" s="28" t="n"/>
+      <c r="R20" s="28" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="28" t="n"/>
+      <c r="D21" s="41" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="38" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="28" t="n"/>
+      <c r="H21" s="28" t="n"/>
+      <c r="I21" s="28" t="n"/>
+      <c r="J21" s="28" t="n"/>
+      <c r="K21" s="28" t="n"/>
+      <c r="L21" s="28" t="n"/>
+      <c r="M21" s="28" t="n"/>
+      <c r="N21" s="28" t="n"/>
+      <c r="O21" s="28" t="n"/>
+      <c r="P21" s="28" t="n"/>
+      <c r="Q21" s="28" t="n"/>
+      <c r="R21" s="28" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="28" t="n"/>
+      <c r="D22" s="33" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="28" t="n"/>
+      <c r="H22" s="28" t="n"/>
+      <c r="I22" s="28" t="n"/>
+      <c r="J22" s="28" t="n"/>
+      <c r="K22" s="28" t="n"/>
+      <c r="L22" s="28" t="n"/>
+      <c r="M22" s="28" t="n"/>
+      <c r="N22" s="28" t="n"/>
+      <c r="O22" s="28" t="n"/>
+      <c r="P22" s="28" t="n"/>
+      <c r="Q22" s="28" t="n"/>
+      <c r="R22" s="28" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="28" t="n"/>
+      <c r="D23" s="28" t="n"/>
+      <c r="E23" s="28" t="n"/>
+      <c r="F23" s="28" t="n"/>
+      <c r="G23" s="28" t="n"/>
+      <c r="H23" s="28" t="n"/>
+      <c r="I23" s="28" t="n"/>
+      <c r="J23" s="28" t="n"/>
+      <c r="K23" s="28" t="n"/>
+      <c r="L23" s="28" t="n"/>
+      <c r="M23" s="28" t="n"/>
+      <c r="N23" s="28" t="n"/>
+      <c r="O23" s="28" t="n"/>
+      <c r="P23" s="28" t="n"/>
+      <c r="Q23" s="28" t="n"/>
+      <c r="R23" s="28" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="28" t="n"/>
+      <c r="E24" s="28" t="n"/>
+      <c r="F24" s="28" t="n"/>
+      <c r="G24" s="28" t="n"/>
+      <c r="H24" s="28" t="n"/>
+      <c r="I24" s="28" t="n"/>
+      <c r="J24" s="28" t="n"/>
+      <c r="K24" s="28" t="n"/>
+      <c r="L24" s="28" t="n"/>
+      <c r="M24" s="28" t="n"/>
+      <c r="N24" s="28" t="n"/>
+      <c r="O24" s="28" t="n"/>
+      <c r="P24" s="28" t="n"/>
+      <c r="Q24" s="28" t="n"/>
+      <c r="R24" s="28" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="28" t="n"/>
+      <c r="D25" s="28" t="n"/>
+      <c r="G25" s="28" t="n"/>
+      <c r="H25" s="28" t="n"/>
+      <c r="I25" s="28" t="n"/>
+      <c r="J25" s="28" t="n"/>
+      <c r="K25" s="28" t="n"/>
+      <c r="L25" s="28" t="n"/>
+      <c r="M25" s="28" t="n"/>
+      <c r="N25" s="28" t="n"/>
+      <c r="O25" s="28" t="n"/>
+      <c r="P25" s="28" t="n"/>
+      <c r="Q25" s="28" t="n"/>
+      <c r="R25" s="28" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="28" t="n"/>
+      <c r="D26" s="28" t="n"/>
+      <c r="E26" s="28" t="n"/>
+      <c r="F26" s="28" t="n"/>
+      <c r="G26" s="28" t="n"/>
+      <c r="H26" s="28" t="n"/>
+      <c r="I26" s="28" t="n"/>
+      <c r="J26" s="28" t="n"/>
+      <c r="K26" s="28" t="n"/>
+      <c r="L26" s="28" t="n"/>
+      <c r="M26" s="28" t="n"/>
+      <c r="N26" s="28" t="n"/>
+      <c r="O26" s="28" t="n"/>
+      <c r="P26" s="28" t="n"/>
+      <c r="Q26" s="28" t="n"/>
+      <c r="R26" s="28" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="28" t="n"/>
+      <c r="D27" s="39" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="37" t="n"/>
+      <c r="I27" s="28" t="n"/>
+      <c r="J27" s="28" t="n"/>
+      <c r="K27" s="28" t="n"/>
+      <c r="L27" s="28" t="n"/>
+      <c r="M27" s="28" t="n"/>
+      <c r="N27" s="28" t="n"/>
+      <c r="O27" s="28" t="n"/>
+      <c r="P27" s="28" t="n"/>
+      <c r="Q27" s="28" t="n"/>
+      <c r="R27" s="28" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="28" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="28" t="n"/>
+      <c r="J28" s="28" t="n"/>
+      <c r="K28" s="28" t="n"/>
+      <c r="L28" s="28" t="n"/>
+      <c r="M28" s="28" t="n"/>
+      <c r="N28" s="28" t="n"/>
+      <c r="O28" s="28" t="n"/>
+      <c r="P28" s="28" t="n"/>
+      <c r="Q28" s="28" t="n"/>
+      <c r="R28" s="28" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="28" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="28" t="n"/>
+      <c r="J29" s="28" t="n"/>
+      <c r="K29" s="28" t="n"/>
+      <c r="L29" s="28" t="n"/>
+      <c r="M29" s="28" t="n"/>
+      <c r="N29" s="28" t="n"/>
+      <c r="O29" s="28" t="n"/>
+      <c r="P29" s="28" t="n"/>
+      <c r="Q29" s="28" t="n"/>
+      <c r="R29" s="28" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="28" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="28" t="n"/>
+      <c r="J30" s="28" t="n"/>
+      <c r="K30" s="28" t="n"/>
+      <c r="L30" s="28" t="n"/>
+      <c r="M30" s="28" t="n"/>
+      <c r="N30" s="28" t="n"/>
+      <c r="O30" s="28" t="n"/>
+      <c r="P30" s="28" t="n"/>
+      <c r="Q30" s="28" t="n"/>
+      <c r="R30" s="28" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="28" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="28" t="n"/>
+      <c r="J31" s="28" t="n"/>
+      <c r="K31" s="28" t="n"/>
+      <c r="L31" s="28" t="n"/>
+      <c r="M31" s="28" t="n"/>
+      <c r="N31" s="28" t="n"/>
+      <c r="O31" s="28" t="n"/>
+      <c r="P31" s="28" t="n"/>
+      <c r="Q31" s="28" t="n"/>
+      <c r="R31" s="28" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="28" t="n"/>
+      <c r="B32" s="28" t="n"/>
+      <c r="C32" s="28" t="n"/>
+      <c r="D32" s="28" t="n"/>
+      <c r="E32" s="28" t="n"/>
+      <c r="F32" s="28" t="n"/>
+      <c r="G32" s="28" t="n"/>
+      <c r="H32" s="28" t="n"/>
+      <c r="I32" s="28" t="n"/>
+      <c r="J32" s="28" t="n"/>
+      <c r="K32" s="28" t="n"/>
+      <c r="L32" s="28" t="n"/>
+      <c r="M32" s="28" t="n"/>
+      <c r="N32" s="28" t="n"/>
+      <c r="O32" s="28" t="n"/>
+      <c r="P32" s="28" t="n"/>
+      <c r="Q32" s="28" t="n"/>
+      <c r="R32" s="28" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="42" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="29" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="n"/>
+      <c r="D33" s="28" t="n"/>
+      <c r="E33" s="28" t="n"/>
+      <c r="F33" s="28" t="n"/>
+      <c r="G33" s="28" t="n"/>
+      <c r="H33" s="28" t="n"/>
+      <c r="I33" s="28" t="n"/>
+      <c r="J33" s="28" t="n"/>
+      <c r="K33" s="28" t="n"/>
+      <c r="L33" s="28" t="n"/>
+      <c r="M33" s="28" t="n"/>
+      <c r="N33" s="28" t="n"/>
+      <c r="O33" s="28" t="n"/>
+      <c r="P33" s="28" t="n"/>
+      <c r="Q33" s="28" t="n"/>
+      <c r="R33" s="28" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="28" t="n"/>
+      <c r="D34" s="28" t="n"/>
+      <c r="E34" s="28" t="n"/>
+      <c r="F34" s="28" t="n"/>
+      <c r="G34" s="28" t="n"/>
+      <c r="H34" s="28" t="n"/>
+      <c r="I34" s="28" t="n"/>
+      <c r="J34" s="28" t="n"/>
+      <c r="K34" s="28" t="n"/>
+      <c r="L34" s="28" t="n"/>
+      <c r="M34" s="28" t="n"/>
+      <c r="N34" s="28" t="n"/>
+      <c r="O34" s="28" t="n"/>
+      <c r="P34" s="28" t="n"/>
+      <c r="Q34" s="28" t="n"/>
+      <c r="R34" s="28" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="28" t="n"/>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="28" t="n"/>
+      <c r="E35" s="28" t="n"/>
+      <c r="F35" s="28" t="n"/>
+      <c r="G35" s="28" t="n"/>
+      <c r="H35" s="28" t="n"/>
+      <c r="I35" s="28" t="n"/>
+      <c r="J35" s="28" t="n"/>
+      <c r="K35" s="28" t="n"/>
+      <c r="L35" s="28" t="n"/>
+      <c r="M35" s="28" t="n"/>
+      <c r="N35" s="28" t="n"/>
+      <c r="O35" s="28" t="n"/>
+      <c r="P35" s="28" t="n"/>
+      <c r="Q35" s="28" t="n"/>
+      <c r="R35" s="28" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="28" t="n"/>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="n"/>
+      <c r="E36" s="28" t="n"/>
+      <c r="F36" s="28" t="n"/>
+      <c r="G36" s="28" t="n"/>
+      <c r="H36" s="28" t="n"/>
+      <c r="I36" s="28" t="n"/>
+      <c r="J36" s="28" t="n"/>
+      <c r="K36" s="28" t="n"/>
+      <c r="L36" s="28" t="n"/>
+      <c r="M36" s="28" t="n"/>
+      <c r="N36" s="28" t="n"/>
+      <c r="O36" s="28" t="n"/>
+      <c r="P36" s="28" t="n"/>
+      <c r="Q36" s="28" t="n"/>
+      <c r="R36" s="28" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="28" t="n"/>
+      <c r="B37" s="29" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="n"/>
+      <c r="E37" s="28" t="n"/>
+      <c r="F37" s="28" t="n"/>
+      <c r="G37" s="28" t="n"/>
+      <c r="H37" s="28" t="n"/>
+      <c r="I37" s="28" t="n"/>
+      <c r="J37" s="28" t="n"/>
+      <c r="K37" s="28" t="n"/>
+      <c r="L37" s="28" t="n"/>
+      <c r="M37" s="28" t="n"/>
+      <c r="N37" s="28" t="n"/>
+      <c r="O37" s="28" t="n"/>
+      <c r="P37" s="28" t="n"/>
+      <c r="Q37" s="28" t="n"/>
+      <c r="R37" s="28" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="28" t="n"/>
+      <c r="B38" s="28" t="n"/>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="28" t="n"/>
+      <c r="E38" s="28" t="n"/>
+      <c r="F38" s="28" t="n"/>
+      <c r="G38" s="28" t="n"/>
+      <c r="H38" s="28" t="n"/>
+      <c r="I38" s="28" t="n"/>
+      <c r="J38" s="28" t="n"/>
+      <c r="K38" s="28" t="n"/>
+      <c r="L38" s="28" t="n"/>
+      <c r="M38" s="28" t="n"/>
+      <c r="N38" s="28" t="n"/>
+      <c r="O38" s="28" t="n"/>
+      <c r="P38" s="28" t="n"/>
+      <c r="Q38" s="28" t="n"/>
+      <c r="R38" s="28" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="28" t="n"/>
+      <c r="B39" s="28" t="n"/>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="n"/>
+      <c r="E39" s="28" t="n"/>
+      <c r="F39" s="28" t="n"/>
+      <c r="G39" s="28" t="n"/>
+      <c r="H39" s="28" t="n"/>
+      <c r="I39" s="28" t="n"/>
+      <c r="J39" s="28" t="n"/>
+      <c r="K39" s="28" t="n"/>
+      <c r="L39" s="28" t="n"/>
+      <c r="M39" s="28" t="n"/>
+      <c r="N39" s="28" t="n"/>
+      <c r="O39" s="28" t="n"/>
+      <c r="P39" s="28" t="n"/>
+      <c r="Q39" s="28" t="n"/>
+      <c r="R39" s="28" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="28" t="n"/>
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="28" t="n"/>
+      <c r="D40" s="28" t="n"/>
+      <c r="E40" s="28" t="n"/>
+      <c r="F40" s="28" t="n"/>
+      <c r="G40" s="28" t="n"/>
+      <c r="H40" s="28" t="n"/>
+      <c r="I40" s="28" t="n"/>
+      <c r="J40" s="28" t="n"/>
+      <c r="K40" s="28" t="n"/>
+      <c r="L40" s="28" t="n"/>
+      <c r="M40" s="28" t="n"/>
+      <c r="N40" s="28" t="n"/>
+      <c r="O40" s="28" t="n"/>
+      <c r="P40" s="28" t="n"/>
+      <c r="Q40" s="28" t="n"/>
+      <c r="R40" s="28" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="28" t="n"/>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="n"/>
+      <c r="E41" s="28" t="n"/>
+      <c r="F41" s="28" t="n"/>
+      <c r="G41" s="28" t="n"/>
+      <c r="H41" s="28" t="n"/>
+      <c r="I41" s="28" t="n"/>
+      <c r="J41" s="28" t="n"/>
+      <c r="K41" s="28" t="n"/>
+      <c r="L41" s="28" t="n"/>
+      <c r="M41" s="28" t="n"/>
+      <c r="N41" s="28" t="n"/>
+      <c r="O41" s="28" t="n"/>
+      <c r="P41" s="28" t="n"/>
+      <c r="Q41" s="28" t="n"/>
+      <c r="R41" s="28" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="28" t="n"/>
+      <c r="B42" s="28" t="n"/>
+      <c r="C42" s="28" t="n"/>
+      <c r="D42" s="28" t="n"/>
+      <c r="E42" s="28" t="n"/>
+      <c r="F42" s="28" t="n"/>
+      <c r="G42" s="28" t="n"/>
+      <c r="H42" s="28" t="n"/>
+      <c r="I42" s="28" t="n"/>
+      <c r="J42" s="28" t="n"/>
+      <c r="K42" s="28" t="n"/>
+      <c r="L42" s="28" t="n"/>
+      <c r="M42" s="28" t="n"/>
+      <c r="N42" s="28" t="n"/>
+      <c r="O42" s="28" t="n"/>
+      <c r="P42" s="28" t="n"/>
+      <c r="Q42" s="28" t="n"/>
+      <c r="R42" s="28" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="28" t="n"/>
+      <c r="B43" s="28" t="n"/>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="28" t="n"/>
+      <c r="E43" s="28" t="n"/>
+      <c r="F43" s="28" t="n"/>
+      <c r="G43" s="28" t="n"/>
+      <c r="H43" s="28" t="n"/>
+      <c r="I43" s="28" t="n"/>
+      <c r="J43" s="28" t="n"/>
+      <c r="K43" s="28" t="n"/>
+      <c r="L43" s="28" t="n"/>
+      <c r="M43" s="28" t="n"/>
+      <c r="N43" s="28" t="n"/>
+      <c r="O43" s="28" t="n"/>
+      <c r="P43" s="28" t="n"/>
+      <c r="Q43" s="28" t="n"/>
+      <c r="R43" s="28" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="28" t="n"/>
+      <c r="B44" s="28" t="n"/>
+      <c r="C44" s="28" t="n"/>
+      <c r="D44" s="28" t="n"/>
+      <c r="E44" s="28" t="n"/>
+      <c r="F44" s="28" t="n"/>
+      <c r="G44" s="28" t="n"/>
+      <c r="H44" s="28" t="n"/>
+      <c r="I44" s="28" t="n"/>
+      <c r="J44" s="28" t="n"/>
+      <c r="K44" s="28" t="n"/>
+      <c r="L44" s="28" t="n"/>
+      <c r="M44" s="28" t="n"/>
+      <c r="N44" s="28" t="n"/>
+      <c r="O44" s="28" t="n"/>
+      <c r="P44" s="28" t="n"/>
+      <c r="Q44" s="28" t="n"/>
+      <c r="R44" s="28" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="28" t="n"/>
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
+      <c r="E45" s="28" t="n"/>
+      <c r="F45" s="28" t="n"/>
+      <c r="G45" s="28" t="n"/>
+      <c r="H45" s="28" t="n"/>
+      <c r="I45" s="28" t="n"/>
+      <c r="J45" s="28" t="n"/>
+      <c r="K45" s="28" t="n"/>
+      <c r="L45" s="28" t="n"/>
+      <c r="M45" s="28" t="n"/>
+      <c r="N45" s="28" t="n"/>
+      <c r="O45" s="28" t="n"/>
+      <c r="P45" s="28" t="n"/>
+      <c r="Q45" s="28" t="n"/>
+      <c r="R45" s="28" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="28" t="n"/>
+      <c r="B46" s="28" t="n"/>
+      <c r="C46" s="28" t="n"/>
+      <c r="D46" s="28" t="n"/>
+      <c r="E46" s="28" t="n"/>
+      <c r="F46" s="28" t="n"/>
+      <c r="G46" s="28" t="n"/>
+      <c r="H46" s="28" t="n"/>
+      <c r="I46" s="28" t="n"/>
+      <c r="J46" s="28" t="n"/>
+      <c r="K46" s="28" t="n"/>
+      <c r="L46" s="28" t="n"/>
+      <c r="M46" s="28" t="n"/>
+      <c r="N46" s="28" t="n"/>
+      <c r="O46" s="28" t="n"/>
+      <c r="P46" s="28" t="n"/>
+      <c r="Q46" s="28" t="n"/>
+      <c r="R46" s="28" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="28" t="n"/>
+      <c r="B47" s="28" t="n"/>
+      <c r="C47" s="28" t="n"/>
+      <c r="D47" s="28" t="n"/>
+      <c r="E47" s="28" t="n"/>
+      <c r="F47" s="28" t="n"/>
+      <c r="G47" s="28" t="n"/>
+      <c r="H47" s="28" t="n"/>
+      <c r="I47" s="28" t="n"/>
+      <c r="J47" s="28" t="n"/>
+      <c r="K47" s="28" t="n"/>
+      <c r="L47" s="28" t="n"/>
+      <c r="M47" s="28" t="n"/>
+      <c r="N47" s="28" t="n"/>
+      <c r="O47" s="28" t="n"/>
+      <c r="P47" s="28" t="n"/>
+      <c r="Q47" s="28" t="n"/>
+      <c r="R47" s="28" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="28" t="n"/>
+      <c r="B48" s="28" t="n"/>
+      <c r="C48" s="28" t="n"/>
+      <c r="D48" s="28" t="n"/>
+      <c r="E48" s="28" t="n"/>
+      <c r="F48" s="28" t="n"/>
+      <c r="G48" s="28" t="n"/>
+      <c r="H48" s="28" t="n"/>
+      <c r="I48" s="28" t="n"/>
+      <c r="J48" s="28" t="n"/>
+      <c r="K48" s="28" t="n"/>
+      <c r="L48" s="28" t="n"/>
+      <c r="M48" s="28" t="n"/>
+      <c r="N48" s="28" t="n"/>
+      <c r="O48" s="28" t="n"/>
+      <c r="P48" s="28" t="n"/>
+      <c r="Q48" s="28" t="n"/>
+      <c r="R48" s="28" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="28" t="n"/>
+      <c r="B49" s="28" t="n"/>
+      <c r="C49" s="28" t="n"/>
+      <c r="D49" s="28" t="n"/>
+      <c r="E49" s="28" t="n"/>
+      <c r="F49" s="28" t="n"/>
+      <c r="G49" s="28" t="n"/>
+      <c r="H49" s="28" t="n"/>
+      <c r="I49" s="28" t="n"/>
+      <c r="J49" s="28" t="n"/>
+      <c r="K49" s="28" t="n"/>
+      <c r="L49" s="28" t="n"/>
+      <c r="M49" s="28" t="n"/>
+      <c r="N49" s="28" t="n"/>
+      <c r="O49" s="28" t="n"/>
+      <c r="P49" s="28" t="n"/>
+      <c r="Q49" s="28" t="n"/>
+      <c r="R49" s="28" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="28" t="n"/>
+      <c r="B50" s="28" t="n"/>
+      <c r="C50" s="28" t="n"/>
+      <c r="D50" s="28" t="n"/>
+      <c r="E50" s="28" t="n"/>
+      <c r="F50" s="28" t="n"/>
+      <c r="G50" s="28" t="n"/>
+      <c r="H50" s="28" t="n"/>
+      <c r="I50" s="28" t="n"/>
+      <c r="J50" s="28" t="n"/>
+      <c r="K50" s="28" t="n"/>
+      <c r="L50" s="28" t="n"/>
+      <c r="M50" s="28" t="n"/>
+      <c r="N50" s="28" t="n"/>
+      <c r="O50" s="28" t="n"/>
+      <c r="P50" s="28" t="n"/>
+      <c r="Q50" s="28" t="n"/>
+      <c r="R50" s="28" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="28" t="n"/>
+      <c r="B51" s="28" t="n"/>
+      <c r="C51" s="28" t="n"/>
+      <c r="D51" s="29" t="n"/>
+      <c r="E51" s="28" t="n"/>
+      <c r="F51" s="28" t="n"/>
+      <c r="G51" s="28" t="n"/>
+      <c r="H51" s="28" t="n"/>
+      <c r="I51" s="28" t="n"/>
+      <c r="J51" s="28" t="n"/>
+      <c r="K51" s="28" t="n"/>
+      <c r="L51" s="28" t="n"/>
+      <c r="M51" s="28" t="n"/>
+      <c r="N51" s="28" t="n"/>
+      <c r="O51" s="28" t="n"/>
+      <c r="P51" s="28" t="n"/>
+      <c r="Q51" s="28" t="n"/>
+      <c r="R51" s="28" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="28" t="n"/>
+      <c r="B52" s="28" t="n"/>
+      <c r="C52" s="28" t="n"/>
+      <c r="D52" s="28" t="n"/>
+      <c r="E52" s="28" t="n"/>
+      <c r="F52" s="28" t="n"/>
+      <c r="G52" s="28" t="n"/>
+      <c r="H52" s="28" t="n"/>
+      <c r="I52" s="28" t="n"/>
+      <c r="J52" s="28" t="n"/>
+      <c r="K52" s="28" t="n"/>
+      <c r="L52" s="28" t="n"/>
+      <c r="M52" s="28" t="n"/>
+      <c r="N52" s="28" t="n"/>
+      <c r="O52" s="28" t="n"/>
+      <c r="P52" s="28" t="n"/>
+      <c r="Q52" s="28" t="n"/>
+      <c r="R52" s="28" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="42" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="29" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="28" t="n"/>
+      <c r="E53" s="28" t="n"/>
+      <c r="F53" s="28" t="n"/>
+      <c r="G53" s="28" t="n"/>
+      <c r="H53" s="28" t="n"/>
+      <c r="I53" s="28" t="n"/>
+      <c r="J53" s="28" t="n"/>
+      <c r="K53" s="28" t="n"/>
+      <c r="L53" s="28" t="n"/>
+      <c r="M53" s="28" t="n"/>
+      <c r="N53" s="28" t="n"/>
+      <c r="O53" s="28" t="n"/>
+      <c r="P53" s="28" t="n"/>
+      <c r="Q53" s="28" t="n"/>
+      <c r="R53" s="28" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="28" t="n"/>
+    </row>
+    <row r="55" ht="64.5" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P56" s="22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Q56" s="23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R56" s="23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P57" s="22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Q57" s="23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R57" s="23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="28" t="n"/>
+      <c r="B60" s="28" t="n"/>
+      <c r="C60" s="28" t="n"/>
+      <c r="D60" s="28" t="n"/>
+      <c r="E60" s="28" t="n"/>
+      <c r="F60" s="28" t="n"/>
+      <c r="G60" s="28" t="n"/>
+      <c r="H60" s="28" t="n"/>
+      <c r="I60" s="28" t="n"/>
+      <c r="J60" s="28" t="n"/>
+      <c r="K60" s="28" t="n"/>
+      <c r="L60" s="28" t="n"/>
+      <c r="M60" s="28" t="n"/>
+      <c r="N60" s="28" t="n"/>
+      <c r="O60" s="28" t="n"/>
+      <c r="P60" s="28" t="n"/>
+      <c r="Q60" s="28" t="n"/>
+      <c r="R60" s="28" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="28" t="n"/>
+      <c r="B61" s="28" t="n"/>
+      <c r="C61" s="28" t="n"/>
+      <c r="D61" s="28" t="n"/>
+      <c r="E61" s="28" t="n"/>
+      <c r="F61" s="28" t="n"/>
+      <c r="G61" s="28" t="n"/>
+      <c r="H61" s="28" t="n"/>
+      <c r="I61" s="28" t="n"/>
+      <c r="J61" s="28" t="n"/>
+      <c r="K61" s="28" t="n"/>
+      <c r="L61" s="28" t="n"/>
+      <c r="M61" s="28" t="n"/>
+      <c r="N61" s="28" t="n"/>
+      <c r="O61" s="28" t="n"/>
+      <c r="P61" s="28" t="n"/>
+      <c r="Q61" s="28" t="n"/>
+      <c r="R61" s="28" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="42" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="29" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="28" t="n"/>
+      <c r="E62" s="28" t="n"/>
+      <c r="F62" s="28" t="n"/>
+      <c r="G62" s="28" t="n"/>
+      <c r="H62" s="28" t="n"/>
+      <c r="I62" s="28" t="n"/>
+      <c r="J62" s="28" t="n"/>
+      <c r="K62" s="28" t="n"/>
+      <c r="L62" s="28" t="n"/>
+      <c r="M62" s="28" t="n"/>
+      <c r="N62" s="28" t="n"/>
+      <c r="O62" s="28" t="n"/>
+      <c r="P62" s="28" t="n"/>
+      <c r="Q62" s="28" t="n"/>
+      <c r="R62" s="28" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="28" t="n"/>
+    </row>
+    <row r="64" ht="64.5" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="P65" s="22" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q65" s="23" t="n">
+        <v>98</v>
+      </c>
+      <c r="R65" s="23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.28515625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="n"/>
+      <c r="B1" s="28" t="n"/>
+      <c r="C1" s="28" t="n"/>
+      <c r="D1" s="28" t="n"/>
+      <c r="E1" s="28" t="n"/>
+      <c r="F1" s="28" t="n"/>
+      <c r="G1" s="28" t="n"/>
+      <c r="H1" s="28" t="n"/>
+      <c r="I1" s="28" t="n"/>
+      <c r="J1" s="28" t="n"/>
+      <c r="K1" s="28" t="n"/>
+      <c r="L1" s="28" t="n"/>
+      <c r="M1" s="28" t="n"/>
+      <c r="N1" s="28" t="n"/>
+      <c r="O1" s="28" t="n"/>
+      <c r="P1" s="28" t="n"/>
+      <c r="Q1" s="28" t="n"/>
+      <c r="R1" s="28" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>R2.14 PPP</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="n"/>
+      <c r="F2" s="42" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Alexandra SALOU</t>
+        </is>
+      </c>
+      <c r="H2" s="28" t="n"/>
+      <c r="I2" s="28" t="n"/>
+      <c r="J2" s="28" t="n"/>
+      <c r="K2" s="28" t="n"/>
+      <c r="L2" s="28" t="n"/>
+      <c r="M2" s="28" t="n"/>
+      <c r="N2" s="28" t="n"/>
+      <c r="O2" s="28" t="n"/>
+      <c r="P2" s="28" t="n"/>
+      <c r="Q2" s="28" t="n"/>
+      <c r="R2" s="28" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="n"/>
+      <c r="B3" s="28" t="n"/>
+      <c r="C3" s="28" t="n"/>
+      <c r="D3" s="28" t="n"/>
+      <c r="E3" s="28" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="28" t="n"/>
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="28" t="n"/>
+      <c r="J3" s="28" t="n"/>
+      <c r="K3" s="28" t="n"/>
+      <c r="L3" s="28" t="n"/>
+      <c r="M3" s="28" t="n"/>
+      <c r="N3" s="28" t="n"/>
+      <c r="O3" s="28" t="n"/>
+      <c r="P3" s="28" t="n"/>
+      <c r="Q3" s="28" t="n"/>
+      <c r="R3" s="28" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="42" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="n"/>
+      <c r="F4" s="28" t="n"/>
+      <c r="G4" s="28" t="n"/>
+      <c r="H4" s="28" t="n"/>
+      <c r="I4" s="28" t="n"/>
+      <c r="J4" s="28" t="n"/>
+      <c r="K4" s="28" t="n"/>
+      <c r="L4" s="28" t="n"/>
+      <c r="M4" s="28" t="n"/>
+      <c r="N4" s="28" t="n"/>
+      <c r="O4" s="28" t="n"/>
+      <c r="P4" s="28" t="n"/>
+      <c r="Q4" s="28" t="n"/>
+      <c r="R4" s="28" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="28" t="n"/>
+      <c r="K5" s="28" t="n"/>
+      <c r="L5" s="28" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="28" t="n"/>
+      <c r="D6" s="28" t="n"/>
+      <c r="E6" s="28" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="28" t="n"/>
+      <c r="H6" s="28" t="n"/>
+      <c r="I6" s="28" t="n"/>
+      <c r="J6" s="28" t="n"/>
+      <c r="K6" s="28" t="n"/>
+      <c r="L6" s="28" t="n"/>
+      <c r="M6" s="28" t="n"/>
+      <c r="N6" s="28" t="n"/>
+      <c r="O6" s="28" t="n"/>
+      <c r="P6" s="28" t="n"/>
+      <c r="Q6" s="28" t="n"/>
+      <c r="R6" s="28" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="42" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="28" t="n"/>
+      <c r="N7" s="28" t="n"/>
+      <c r="O7" s="28" t="n"/>
+      <c r="P7" s="28" t="n"/>
+      <c r="Q7" s="28" t="n"/>
+      <c r="R7" s="28" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="n"/>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="28" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="28" t="n"/>
+      <c r="G8" s="28" t="n"/>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="28" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="28" t="n"/>
+      <c r="M8" s="28" t="n"/>
+      <c r="N8" s="28" t="n"/>
+      <c r="O8" s="28" t="n"/>
+      <c r="P8" s="28" t="n"/>
+      <c r="Q8" s="28" t="n"/>
+      <c r="R8" s="28" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="n"/>
+      <c r="C9" s="28" t="n"/>
+      <c r="D9" s="28" t="n"/>
+      <c r="E9" s="28" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="28" t="n"/>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="28" t="n"/>
+      <c r="K9" s="28" t="n"/>
+      <c r="L9" s="28" t="n"/>
+      <c r="M9" s="28" t="n"/>
+      <c r="N9" s="28" t="n"/>
+      <c r="O9" s="28" t="n"/>
+      <c r="P9" s="28" t="n"/>
+      <c r="Q9" s="28" t="n"/>
+      <c r="R9" s="28" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="n"/>
+      <c r="C10" s="28" t="n"/>
+      <c r="D10" s="28" t="n"/>
+      <c r="E10" s="28" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="28" t="n"/>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="28" t="n"/>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28" t="n"/>
+      <c r="M10" s="28" t="n"/>
+      <c r="N10" s="28" t="n"/>
+      <c r="O10" s="28" t="n"/>
+      <c r="P10" s="28" t="n"/>
+      <c r="Q10" s="28" t="n"/>
+      <c r="R10" s="28" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="n"/>
+      <c r="B11" s="28" t="n"/>
+      <c r="C11" s="28" t="n"/>
+      <c r="D11" s="28" t="n"/>
+      <c r="E11" s="28" t="n"/>
+      <c r="F11" s="28" t="n"/>
+      <c r="G11" s="28" t="n"/>
+      <c r="H11" s="28" t="n"/>
+      <c r="I11" s="28" t="n"/>
+      <c r="J11" s="28" t="n"/>
+      <c r="K11" s="28" t="n"/>
+      <c r="L11" s="28" t="n"/>
+      <c r="M11" s="28" t="n"/>
+      <c r="N11" s="28" t="n"/>
+      <c r="O11" s="28" t="n"/>
+      <c r="P11" s="28" t="n"/>
+      <c r="Q11" s="28" t="n"/>
+      <c r="R11" s="28" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="28" t="n"/>
+      <c r="B12" s="28" t="n"/>
+      <c r="C12" s="28" t="n"/>
+      <c r="D12" s="28" t="n"/>
+      <c r="E12" s="28" t="n"/>
+      <c r="F12" s="28" t="n"/>
+      <c r="G12" s="28" t="n"/>
+      <c r="H12" s="28" t="n"/>
+      <c r="I12" s="28" t="n"/>
+      <c r="J12" s="28" t="n"/>
+      <c r="K12" s="28" t="n"/>
+      <c r="L12" s="28" t="n"/>
+      <c r="M12" s="28" t="n"/>
+      <c r="N12" s="28" t="n"/>
+      <c r="O12" s="28" t="n"/>
+      <c r="P12" s="28" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="28" t="n"/>
+    </row>
+    <row r="13" ht="41.25" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="28" t="n"/>
+      <c r="D13" s="28" t="n"/>
+      <c r="E13" s="28" t="n"/>
+      <c r="F13" s="28" t="n"/>
+      <c r="G13" s="28" t="n"/>
+      <c r="H13" s="28" t="n"/>
+      <c r="I13" s="28" t="n"/>
+      <c r="J13" s="28" t="n"/>
+      <c r="K13" s="28" t="n"/>
+      <c r="L13" s="28" t="n"/>
+      <c r="M13" s="28" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="28" t="n"/>
+      <c r="P13" s="28" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="28" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="28" t="n"/>
+      <c r="D14" s="30" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="32" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="28" t="n"/>
+      <c r="L14" s="28" t="n"/>
+      <c r="M14" s="28" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="28" t="n"/>
+      <c r="P14" s="28" t="n"/>
+      <c r="Q14" s="28" t="n"/>
+      <c r="R14" s="28" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="28" t="n"/>
+      <c r="D15" s="33" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="35" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="28" t="n"/>
+      <c r="L15" s="28" t="n"/>
+      <c r="M15" s="28" t="n"/>
+      <c r="N15" s="28" t="n"/>
+      <c r="O15" s="28" t="n"/>
+      <c r="P15" s="28" t="n"/>
+      <c r="Q15" s="28" t="n"/>
+      <c r="R15" s="28" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="28" t="n"/>
+      <c r="D16" s="28" t="n"/>
+      <c r="E16" s="28" t="n"/>
+      <c r="F16" s="28" t="n"/>
+      <c r="G16" s="28" t="n"/>
+      <c r="H16" s="28" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="28" t="n"/>
+      <c r="K16" s="28" t="n"/>
+      <c r="L16" s="28" t="n"/>
+      <c r="M16" s="28" t="n"/>
+      <c r="N16" s="28" t="n"/>
+      <c r="O16" s="28" t="n"/>
+      <c r="P16" s="28" t="n"/>
+      <c r="Q16" s="28" t="n"/>
+      <c r="R16" s="28" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="28" t="n"/>
+      <c r="D17" s="28" t="n"/>
+      <c r="E17" s="28" t="n"/>
+      <c r="F17" s="28" t="n"/>
+      <c r="G17" s="28" t="n"/>
+      <c r="H17" s="28" t="n"/>
+      <c r="I17" s="28" t="n"/>
+      <c r="J17" s="28" t="n"/>
+      <c r="K17" s="28" t="n"/>
+      <c r="L17" s="28" t="n"/>
+      <c r="M17" s="28" t="n"/>
+      <c r="N17" s="28" t="n"/>
+      <c r="O17" s="28" t="n"/>
+      <c r="P17" s="28" t="n"/>
+      <c r="Q17" s="28" t="n"/>
+      <c r="R17" s="28" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="28" t="n"/>
+      <c r="D18" s="28" t="n"/>
+      <c r="E18" s="28" t="n"/>
+      <c r="F18" s="28" t="n"/>
+      <c r="G18" s="28" t="n"/>
+      <c r="H18" s="28" t="n"/>
+      <c r="I18" s="28" t="n"/>
+      <c r="J18" s="28" t="n"/>
+      <c r="K18" s="28" t="n"/>
+      <c r="L18" s="28" t="n"/>
+      <c r="M18" s="28" t="n"/>
+      <c r="N18" s="28" t="n"/>
+      <c r="O18" s="28" t="n"/>
+      <c r="P18" s="28" t="n"/>
+      <c r="Q18" s="28" t="n"/>
+      <c r="R18" s="28" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="28" t="n"/>
+      <c r="D19" s="39" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="28" t="n"/>
+      <c r="H19" s="28" t="n"/>
+      <c r="I19" s="28" t="n"/>
+      <c r="J19" s="28" t="n"/>
+      <c r="K19" s="28" t="n"/>
+      <c r="L19" s="28" t="n"/>
+      <c r="M19" s="28" t="n"/>
+      <c r="N19" s="28" t="n"/>
+      <c r="O19" s="28" t="n"/>
+      <c r="P19" s="28" t="n"/>
+      <c r="Q19" s="28" t="n"/>
+      <c r="R19" s="28" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="28" t="n"/>
+      <c r="D20" s="41" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="38" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="28" t="n"/>
+      <c r="H20" s="28" t="n"/>
+      <c r="I20" s="28" t="n"/>
+      <c r="J20" s="28" t="n"/>
+      <c r="K20" s="28" t="n"/>
+      <c r="L20" s="28" t="n"/>
+      <c r="M20" s="28" t="n"/>
+      <c r="N20" s="28" t="n"/>
+      <c r="O20" s="28" t="n"/>
+      <c r="P20" s="28" t="n"/>
+      <c r="Q20" s="28" t="n"/>
+      <c r="R20" s="28" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="28" t="n"/>
+      <c r="D21" s="41" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="38" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="28" t="n"/>
+      <c r="H21" s="28" t="n"/>
+      <c r="I21" s="28" t="n"/>
+      <c r="J21" s="28" t="n"/>
+      <c r="K21" s="28" t="n"/>
+      <c r="L21" s="28" t="n"/>
+      <c r="M21" s="28" t="n"/>
+      <c r="N21" s="28" t="n"/>
+      <c r="O21" s="28" t="n"/>
+      <c r="P21" s="28" t="n"/>
+      <c r="Q21" s="28" t="n"/>
+      <c r="R21" s="28" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="28" t="n"/>
+      <c r="D22" s="33" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="28" t="n"/>
+      <c r="H22" s="28" t="n"/>
+      <c r="I22" s="28" t="n"/>
+      <c r="J22" s="28" t="n"/>
+      <c r="K22" s="28" t="n"/>
+      <c r="L22" s="28" t="n"/>
+      <c r="M22" s="28" t="n"/>
+      <c r="N22" s="28" t="n"/>
+      <c r="O22" s="28" t="n"/>
+      <c r="P22" s="28" t="n"/>
+      <c r="Q22" s="28" t="n"/>
+      <c r="R22" s="28" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="28" t="n"/>
+      <c r="D23" s="28" t="n"/>
+      <c r="E23" s="28" t="n"/>
+      <c r="F23" s="28" t="n"/>
+      <c r="G23" s="28" t="n"/>
+      <c r="H23" s="28" t="n"/>
+      <c r="I23" s="28" t="n"/>
+      <c r="J23" s="28" t="n"/>
+      <c r="K23" s="28" t="n"/>
+      <c r="L23" s="28" t="n"/>
+      <c r="M23" s="28" t="n"/>
+      <c r="N23" s="28" t="n"/>
+      <c r="O23" s="28" t="n"/>
+      <c r="P23" s="28" t="n"/>
+      <c r="Q23" s="28" t="n"/>
+      <c r="R23" s="28" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="28" t="n"/>
+      <c r="E24" s="28" t="n"/>
+      <c r="F24" s="28" t="n"/>
+      <c r="G24" s="28" t="n"/>
+      <c r="H24" s="28" t="n"/>
+      <c r="I24" s="28" t="n"/>
+      <c r="J24" s="28" t="n"/>
+      <c r="K24" s="28" t="n"/>
+      <c r="L24" s="28" t="n"/>
+      <c r="M24" s="28" t="n"/>
+      <c r="N24" s="28" t="n"/>
+      <c r="O24" s="28" t="n"/>
+      <c r="P24" s="28" t="n"/>
+      <c r="Q24" s="28" t="n"/>
+      <c r="R24" s="28" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="28" t="n"/>
+      <c r="D25" s="28" t="n"/>
+      <c r="G25" s="28" t="n"/>
+      <c r="H25" s="28" t="n"/>
+      <c r="I25" s="28" t="n"/>
+      <c r="J25" s="28" t="n"/>
+      <c r="K25" s="28" t="n"/>
+      <c r="L25" s="28" t="n"/>
+      <c r="M25" s="28" t="n"/>
+      <c r="N25" s="28" t="n"/>
+      <c r="O25" s="28" t="n"/>
+      <c r="P25" s="28" t="n"/>
+      <c r="Q25" s="28" t="n"/>
+      <c r="R25" s="28" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="28" t="n"/>
+      <c r="D26" s="28" t="n"/>
+      <c r="E26" s="28" t="n"/>
+      <c r="F26" s="28" t="n"/>
+      <c r="G26" s="28" t="n"/>
+      <c r="H26" s="28" t="n"/>
+      <c r="I26" s="28" t="n"/>
+      <c r="J26" s="28" t="n"/>
+      <c r="K26" s="28" t="n"/>
+      <c r="L26" s="28" t="n"/>
+      <c r="M26" s="28" t="n"/>
+      <c r="N26" s="28" t="n"/>
+      <c r="O26" s="28" t="n"/>
+      <c r="P26" s="28" t="n"/>
+      <c r="Q26" s="28" t="n"/>
+      <c r="R26" s="28" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="28" t="n"/>
+      <c r="D27" s="39" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="37" t="n"/>
+      <c r="I27" s="28" t="n"/>
+      <c r="J27" s="28" t="n"/>
+      <c r="K27" s="28" t="n"/>
+      <c r="L27" s="28" t="n"/>
+      <c r="M27" s="28" t="n"/>
+      <c r="N27" s="28" t="n"/>
+      <c r="O27" s="28" t="n"/>
+      <c r="P27" s="28" t="n"/>
+      <c r="Q27" s="28" t="n"/>
+      <c r="R27" s="28" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="28" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="28" t="n"/>
+      <c r="J28" s="28" t="n"/>
+      <c r="K28" s="28" t="n"/>
+      <c r="L28" s="28" t="n"/>
+      <c r="M28" s="28" t="n"/>
+      <c r="N28" s="28" t="n"/>
+      <c r="O28" s="28" t="n"/>
+      <c r="P28" s="28" t="n"/>
+      <c r="Q28" s="28" t="n"/>
+      <c r="R28" s="28" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="28" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="28" t="n"/>
+      <c r="J29" s="28" t="n"/>
+      <c r="K29" s="28" t="n"/>
+      <c r="L29" s="28" t="n"/>
+      <c r="M29" s="28" t="n"/>
+      <c r="N29" s="28" t="n"/>
+      <c r="O29" s="28" t="n"/>
+      <c r="P29" s="28" t="n"/>
+      <c r="Q29" s="28" t="n"/>
+      <c r="R29" s="28" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="28" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="28" t="n"/>
+      <c r="J30" s="28" t="n"/>
+      <c r="K30" s="28" t="n"/>
+      <c r="L30" s="28" t="n"/>
+      <c r="M30" s="28" t="n"/>
+      <c r="N30" s="28" t="n"/>
+      <c r="O30" s="28" t="n"/>
+      <c r="P30" s="28" t="n"/>
+      <c r="Q30" s="28" t="n"/>
+      <c r="R30" s="28" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="28" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="28" t="n"/>
+      <c r="J31" s="28" t="n"/>
+      <c r="K31" s="28" t="n"/>
+      <c r="L31" s="28" t="n"/>
+      <c r="M31" s="28" t="n"/>
+      <c r="N31" s="28" t="n"/>
+      <c r="O31" s="28" t="n"/>
+      <c r="P31" s="28" t="n"/>
+      <c r="Q31" s="28" t="n"/>
+      <c r="R31" s="28" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="28" t="n"/>
+      <c r="B32" s="28" t="n"/>
+      <c r="C32" s="28" t="n"/>
+      <c r="D32" s="28" t="n"/>
+      <c r="E32" s="28" t="n"/>
+      <c r="F32" s="28" t="n"/>
+      <c r="G32" s="28" t="n"/>
+      <c r="H32" s="28" t="n"/>
+      <c r="I32" s="28" t="n"/>
+      <c r="J32" s="28" t="n"/>
+      <c r="K32" s="28" t="n"/>
+      <c r="L32" s="28" t="n"/>
+      <c r="M32" s="28" t="n"/>
+      <c r="N32" s="28" t="n"/>
+      <c r="O32" s="28" t="n"/>
+      <c r="P32" s="28" t="n"/>
+      <c r="Q32" s="28" t="n"/>
+      <c r="R32" s="28" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="42" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="29" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="n"/>
+      <c r="D33" s="28" t="n"/>
+      <c r="E33" s="28" t="n"/>
+      <c r="F33" s="28" t="n"/>
+      <c r="G33" s="28" t="n"/>
+      <c r="H33" s="28" t="n"/>
+      <c r="I33" s="28" t="n"/>
+      <c r="J33" s="28" t="n"/>
+      <c r="K33" s="28" t="n"/>
+      <c r="L33" s="28" t="n"/>
+      <c r="M33" s="28" t="n"/>
+      <c r="N33" s="28" t="n"/>
+      <c r="O33" s="28" t="n"/>
+      <c r="P33" s="28" t="n"/>
+      <c r="Q33" s="28" t="n"/>
+      <c r="R33" s="28" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="28" t="n"/>
+      <c r="D34" s="28" t="n"/>
+      <c r="E34" s="28" t="n"/>
+      <c r="F34" s="28" t="n"/>
+      <c r="G34" s="28" t="n"/>
+      <c r="H34" s="28" t="n"/>
+      <c r="I34" s="28" t="n"/>
+      <c r="J34" s="28" t="n"/>
+      <c r="K34" s="28" t="n"/>
+      <c r="L34" s="28" t="n"/>
+      <c r="M34" s="28" t="n"/>
+      <c r="N34" s="28" t="n"/>
+      <c r="O34" s="28" t="n"/>
+      <c r="P34" s="28" t="n"/>
+      <c r="Q34" s="28" t="n"/>
+      <c r="R34" s="28" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="28" t="n"/>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="28" t="n"/>
+      <c r="E35" s="28" t="n"/>
+      <c r="F35" s="28" t="n"/>
+      <c r="G35" s="28" t="n"/>
+      <c r="H35" s="28" t="n"/>
+      <c r="I35" s="28" t="n"/>
+      <c r="J35" s="28" t="n"/>
+      <c r="K35" s="28" t="n"/>
+      <c r="L35" s="28" t="n"/>
+      <c r="M35" s="28" t="n"/>
+      <c r="N35" s="28" t="n"/>
+      <c r="O35" s="28" t="n"/>
+      <c r="P35" s="28" t="n"/>
+      <c r="Q35" s="28" t="n"/>
+      <c r="R35" s="28" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="28" t="n"/>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="n"/>
+      <c r="E36" s="28" t="n"/>
+      <c r="F36" s="28" t="n"/>
+      <c r="G36" s="28" t="n"/>
+      <c r="H36" s="28" t="n"/>
+      <c r="I36" s="28" t="n"/>
+      <c r="J36" s="28" t="n"/>
+      <c r="K36" s="28" t="n"/>
+      <c r="L36" s="28" t="n"/>
+      <c r="M36" s="28" t="n"/>
+      <c r="N36" s="28" t="n"/>
+      <c r="O36" s="28" t="n"/>
+      <c r="P36" s="28" t="n"/>
+      <c r="Q36" s="28" t="n"/>
+      <c r="R36" s="28" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="28" t="n"/>
+      <c r="B37" s="29" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="n"/>
+      <c r="E37" s="28" t="n"/>
+      <c r="F37" s="28" t="n"/>
+      <c r="G37" s="28" t="n"/>
+      <c r="H37" s="28" t="n"/>
+      <c r="I37" s="28" t="n"/>
+      <c r="J37" s="28" t="n"/>
+      <c r="K37" s="28" t="n"/>
+      <c r="L37" s="28" t="n"/>
+      <c r="M37" s="28" t="n"/>
+      <c r="N37" s="28" t="n"/>
+      <c r="O37" s="28" t="n"/>
+      <c r="P37" s="28" t="n"/>
+      <c r="Q37" s="28" t="n"/>
+      <c r="R37" s="28" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="28" t="n"/>
+      <c r="B38" s="28" t="n"/>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="28" t="n"/>
+      <c r="E38" s="28" t="n"/>
+      <c r="F38" s="28" t="n"/>
+      <c r="G38" s="28" t="n"/>
+      <c r="H38" s="28" t="n"/>
+      <c r="I38" s="28" t="n"/>
+      <c r="J38" s="28" t="n"/>
+      <c r="K38" s="28" t="n"/>
+      <c r="L38" s="28" t="n"/>
+      <c r="M38" s="28" t="n"/>
+      <c r="N38" s="28" t="n"/>
+      <c r="O38" s="28" t="n"/>
+      <c r="P38" s="28" t="n"/>
+      <c r="Q38" s="28" t="n"/>
+      <c r="R38" s="28" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="28" t="n"/>
+      <c r="B39" s="28" t="n"/>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="n"/>
+      <c r="E39" s="28" t="n"/>
+      <c r="F39" s="28" t="n"/>
+      <c r="G39" s="28" t="n"/>
+      <c r="H39" s="28" t="n"/>
+      <c r="I39" s="28" t="n"/>
+      <c r="J39" s="28" t="n"/>
+      <c r="K39" s="28" t="n"/>
+      <c r="L39" s="28" t="n"/>
+      <c r="M39" s="28" t="n"/>
+      <c r="N39" s="28" t="n"/>
+      <c r="O39" s="28" t="n"/>
+      <c r="P39" s="28" t="n"/>
+      <c r="Q39" s="28" t="n"/>
+      <c r="R39" s="28" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="28" t="n"/>
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="28" t="n"/>
+      <c r="D40" s="28" t="n"/>
+      <c r="E40" s="28" t="n"/>
+      <c r="F40" s="28" t="n"/>
+      <c r="G40" s="28" t="n"/>
+      <c r="H40" s="28" t="n"/>
+      <c r="I40" s="28" t="n"/>
+      <c r="J40" s="28" t="n"/>
+      <c r="K40" s="28" t="n"/>
+      <c r="L40" s="28" t="n"/>
+      <c r="M40" s="28" t="n"/>
+      <c r="N40" s="28" t="n"/>
+      <c r="O40" s="28" t="n"/>
+      <c r="P40" s="28" t="n"/>
+      <c r="Q40" s="28" t="n"/>
+      <c r="R40" s="28" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="28" t="n"/>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="n"/>
+      <c r="E41" s="28" t="n"/>
+      <c r="F41" s="28" t="n"/>
+      <c r="G41" s="28" t="n"/>
+      <c r="H41" s="28" t="n"/>
+      <c r="I41" s="28" t="n"/>
+      <c r="J41" s="28" t="n"/>
+      <c r="K41" s="28" t="n"/>
+      <c r="L41" s="28" t="n"/>
+      <c r="M41" s="28" t="n"/>
+      <c r="N41" s="28" t="n"/>
+      <c r="O41" s="28" t="n"/>
+      <c r="P41" s="28" t="n"/>
+      <c r="Q41" s="28" t="n"/>
+      <c r="R41" s="28" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="28" t="n"/>
+      <c r="B42" s="28" t="n"/>
+      <c r="C42" s="28" t="n"/>
+      <c r="D42" s="28" t="n"/>
+      <c r="E42" s="28" t="n"/>
+      <c r="F42" s="28" t="n"/>
+      <c r="G42" s="28" t="n"/>
+      <c r="H42" s="28" t="n"/>
+      <c r="I42" s="28" t="n"/>
+      <c r="J42" s="28" t="n"/>
+      <c r="K42" s="28" t="n"/>
+      <c r="L42" s="28" t="n"/>
+      <c r="M42" s="28" t="n"/>
+      <c r="N42" s="28" t="n"/>
+      <c r="O42" s="28" t="n"/>
+      <c r="P42" s="28" t="n"/>
+      <c r="Q42" s="28" t="n"/>
+      <c r="R42" s="28" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="28" t="n"/>
+      <c r="B43" s="28" t="n"/>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="28" t="n"/>
+      <c r="E43" s="28" t="n"/>
+      <c r="F43" s="28" t="n"/>
+      <c r="G43" s="28" t="n"/>
+      <c r="H43" s="28" t="n"/>
+      <c r="I43" s="28" t="n"/>
+      <c r="J43" s="28" t="n"/>
+      <c r="K43" s="28" t="n"/>
+      <c r="L43" s="28" t="n"/>
+      <c r="M43" s="28" t="n"/>
+      <c r="N43" s="28" t="n"/>
+      <c r="O43" s="28" t="n"/>
+      <c r="P43" s="28" t="n"/>
+      <c r="Q43" s="28" t="n"/>
+      <c r="R43" s="28" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="28" t="n"/>
+      <c r="B44" s="28" t="n"/>
+      <c r="C44" s="28" t="n"/>
+      <c r="D44" s="28" t="n"/>
+      <c r="E44" s="28" t="n"/>
+      <c r="F44" s="28" t="n"/>
+      <c r="G44" s="28" t="n"/>
+      <c r="H44" s="28" t="n"/>
+      <c r="I44" s="28" t="n"/>
+      <c r="J44" s="28" t="n"/>
+      <c r="K44" s="28" t="n"/>
+      <c r="L44" s="28" t="n"/>
+      <c r="M44" s="28" t="n"/>
+      <c r="N44" s="28" t="n"/>
+      <c r="O44" s="28" t="n"/>
+      <c r="P44" s="28" t="n"/>
+      <c r="Q44" s="28" t="n"/>
+      <c r="R44" s="28" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="28" t="n"/>
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
+      <c r="E45" s="28" t="n"/>
+      <c r="F45" s="28" t="n"/>
+      <c r="G45" s="28" t="n"/>
+      <c r="H45" s="28" t="n"/>
+      <c r="I45" s="28" t="n"/>
+      <c r="J45" s="28" t="n"/>
+      <c r="K45" s="28" t="n"/>
+      <c r="L45" s="28" t="n"/>
+      <c r="M45" s="28" t="n"/>
+      <c r="N45" s="28" t="n"/>
+      <c r="O45" s="28" t="n"/>
+      <c r="P45" s="28" t="n"/>
+      <c r="Q45" s="28" t="n"/>
+      <c r="R45" s="28" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="28" t="n"/>
+      <c r="B46" s="28" t="n"/>
+      <c r="C46" s="28" t="n"/>
+      <c r="D46" s="28" t="n"/>
+      <c r="E46" s="28" t="n"/>
+      <c r="F46" s="28" t="n"/>
+      <c r="G46" s="28" t="n"/>
+      <c r="H46" s="28" t="n"/>
+      <c r="I46" s="28" t="n"/>
+      <c r="J46" s="28" t="n"/>
+      <c r="K46" s="28" t="n"/>
+      <c r="L46" s="28" t="n"/>
+      <c r="M46" s="28" t="n"/>
+      <c r="N46" s="28" t="n"/>
+      <c r="O46" s="28" t="n"/>
+      <c r="P46" s="28" t="n"/>
+      <c r="Q46" s="28" t="n"/>
+      <c r="R46" s="28" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="28" t="n"/>
+      <c r="B47" s="28" t="n"/>
+      <c r="C47" s="28" t="n"/>
+      <c r="D47" s="28" t="n"/>
+      <c r="E47" s="28" t="n"/>
+      <c r="F47" s="28" t="n"/>
+      <c r="G47" s="28" t="n"/>
+      <c r="H47" s="28" t="n"/>
+      <c r="I47" s="28" t="n"/>
+      <c r="J47" s="28" t="n"/>
+      <c r="K47" s="28" t="n"/>
+      <c r="L47" s="28" t="n"/>
+      <c r="M47" s="28" t="n"/>
+      <c r="N47" s="28" t="n"/>
+      <c r="O47" s="28" t="n"/>
+      <c r="P47" s="28" t="n"/>
+      <c r="Q47" s="28" t="n"/>
+      <c r="R47" s="28" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="28" t="n"/>
+      <c r="B48" s="28" t="n"/>
+      <c r="C48" s="28" t="n"/>
+      <c r="D48" s="28" t="n"/>
+      <c r="E48" s="28" t="n"/>
+      <c r="F48" s="28" t="n"/>
+      <c r="G48" s="28" t="n"/>
+      <c r="H48" s="28" t="n"/>
+      <c r="I48" s="28" t="n"/>
+      <c r="J48" s="28" t="n"/>
+      <c r="K48" s="28" t="n"/>
+      <c r="L48" s="28" t="n"/>
+      <c r="M48" s="28" t="n"/>
+      <c r="N48" s="28" t="n"/>
+      <c r="O48" s="28" t="n"/>
+      <c r="P48" s="28" t="n"/>
+      <c r="Q48" s="28" t="n"/>
+      <c r="R48" s="28" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="28" t="n"/>
+      <c r="B49" s="28" t="n"/>
+      <c r="C49" s="28" t="n"/>
+      <c r="D49" s="28" t="n"/>
+      <c r="E49" s="28" t="n"/>
+      <c r="F49" s="28" t="n"/>
+      <c r="G49" s="28" t="n"/>
+      <c r="H49" s="28" t="n"/>
+      <c r="I49" s="28" t="n"/>
+      <c r="J49" s="28" t="n"/>
+      <c r="K49" s="28" t="n"/>
+      <c r="L49" s="28" t="n"/>
+      <c r="M49" s="28" t="n"/>
+      <c r="N49" s="28" t="n"/>
+      <c r="O49" s="28" t="n"/>
+      <c r="P49" s="28" t="n"/>
+      <c r="Q49" s="28" t="n"/>
+      <c r="R49" s="28" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="28" t="n"/>
+      <c r="B50" s="28" t="n"/>
+      <c r="C50" s="28" t="n"/>
+      <c r="D50" s="28" t="n"/>
+      <c r="E50" s="28" t="n"/>
+      <c r="F50" s="28" t="n"/>
+      <c r="G50" s="28" t="n"/>
+      <c r="H50" s="28" t="n"/>
+      <c r="I50" s="28" t="n"/>
+      <c r="J50" s="28" t="n"/>
+      <c r="K50" s="28" t="n"/>
+      <c r="L50" s="28" t="n"/>
+      <c r="M50" s="28" t="n"/>
+      <c r="N50" s="28" t="n"/>
+      <c r="O50" s="28" t="n"/>
+      <c r="P50" s="28" t="n"/>
+      <c r="Q50" s="28" t="n"/>
+      <c r="R50" s="28" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="28" t="n"/>
+      <c r="B51" s="28" t="n"/>
+      <c r="C51" s="28" t="n"/>
+      <c r="D51" s="29" t="n"/>
+      <c r="E51" s="28" t="n"/>
+      <c r="F51" s="28" t="n"/>
+      <c r="G51" s="28" t="n"/>
+      <c r="H51" s="28" t="n"/>
+      <c r="I51" s="28" t="n"/>
+      <c r="J51" s="28" t="n"/>
+      <c r="K51" s="28" t="n"/>
+      <c r="L51" s="28" t="n"/>
+      <c r="M51" s="28" t="n"/>
+      <c r="N51" s="28" t="n"/>
+      <c r="O51" s="28" t="n"/>
+      <c r="P51" s="28" t="n"/>
+      <c r="Q51" s="28" t="n"/>
+      <c r="R51" s="28" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="28" t="n"/>
+      <c r="B52" s="28" t="n"/>
+      <c r="C52" s="28" t="n"/>
+      <c r="D52" s="28" t="n"/>
+      <c r="E52" s="28" t="n"/>
+      <c r="F52" s="28" t="n"/>
+      <c r="G52" s="28" t="n"/>
+      <c r="H52" s="28" t="n"/>
+      <c r="I52" s="28" t="n"/>
+      <c r="J52" s="28" t="n"/>
+      <c r="K52" s="28" t="n"/>
+      <c r="L52" s="28" t="n"/>
+      <c r="M52" s="28" t="n"/>
+      <c r="N52" s="28" t="n"/>
+      <c r="O52" s="28" t="n"/>
+      <c r="P52" s="28" t="n"/>
+      <c r="Q52" s="28" t="n"/>
+      <c r="R52" s="28" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="42" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="29" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="28" t="n"/>
+      <c r="E53" s="28" t="n"/>
+      <c r="F53" s="28" t="n"/>
+      <c r="G53" s="28" t="n"/>
+      <c r="H53" s="28" t="n"/>
+      <c r="I53" s="28" t="n"/>
+      <c r="J53" s="28" t="n"/>
+      <c r="K53" s="28" t="n"/>
+      <c r="L53" s="28" t="n"/>
+      <c r="M53" s="28" t="n"/>
+      <c r="N53" s="28" t="n"/>
+      <c r="O53" s="28" t="n"/>
+      <c r="P53" s="28" t="n"/>
+      <c r="Q53" s="28" t="n"/>
+      <c r="R53" s="28" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="28" t="n"/>
+    </row>
+    <row r="55" ht="64.5" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P56" s="22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Q56" s="23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R56" s="23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P57" s="22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Q57" s="23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R57" s="23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="28" t="n"/>
+      <c r="B60" s="28" t="n"/>
+      <c r="C60" s="28" t="n"/>
+      <c r="D60" s="28" t="n"/>
+      <c r="E60" s="28" t="n"/>
+      <c r="F60" s="28" t="n"/>
+      <c r="G60" s="28" t="n"/>
+      <c r="H60" s="28" t="n"/>
+      <c r="I60" s="28" t="n"/>
+      <c r="J60" s="28" t="n"/>
+      <c r="K60" s="28" t="n"/>
+      <c r="L60" s="28" t="n"/>
+      <c r="M60" s="28" t="n"/>
+      <c r="N60" s="28" t="n"/>
+      <c r="O60" s="28" t="n"/>
+      <c r="P60" s="28" t="n"/>
+      <c r="Q60" s="28" t="n"/>
+      <c r="R60" s="28" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="28" t="n"/>
+      <c r="B61" s="28" t="n"/>
+      <c r="C61" s="28" t="n"/>
+      <c r="D61" s="28" t="n"/>
+      <c r="E61" s="28" t="n"/>
+      <c r="F61" s="28" t="n"/>
+      <c r="G61" s="28" t="n"/>
+      <c r="H61" s="28" t="n"/>
+      <c r="I61" s="28" t="n"/>
+      <c r="J61" s="28" t="n"/>
+      <c r="K61" s="28" t="n"/>
+      <c r="L61" s="28" t="n"/>
+      <c r="M61" s="28" t="n"/>
+      <c r="N61" s="28" t="n"/>
+      <c r="O61" s="28" t="n"/>
+      <c r="P61" s="28" t="n"/>
+      <c r="Q61" s="28" t="n"/>
+      <c r="R61" s="28" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="42" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="29" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="28" t="n"/>
+      <c r="E62" s="28" t="n"/>
+      <c r="F62" s="28" t="n"/>
+      <c r="G62" s="28" t="n"/>
+      <c r="H62" s="28" t="n"/>
+      <c r="I62" s="28" t="n"/>
+      <c r="J62" s="28" t="n"/>
+      <c r="K62" s="28" t="n"/>
+      <c r="L62" s="28" t="n"/>
+      <c r="M62" s="28" t="n"/>
+      <c r="N62" s="28" t="n"/>
+      <c r="O62" s="28" t="n"/>
+      <c r="P62" s="28" t="n"/>
+      <c r="Q62" s="28" t="n"/>
+      <c r="R62" s="28" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="28" t="n"/>
+    </row>
+    <row r="64" ht="64.5" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="P65" s="22" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q65" s="23" t="n">
+        <v>98</v>
+      </c>
+      <c r="R65" s="23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -7944,7 +7944,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -22272,7 +22272,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -3308,8 +3308,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -3328,9 +3336,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3348,9 +3368,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3368,9 +3396,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -3388,10 +3424,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -3408,10 +3452,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5099,9 +5151,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -5119,8 +5183,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -5139,10 +5211,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -5159,8 +5239,16 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
@@ -5179,8 +5267,16 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -5199,10 +5295,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -6890,8 +6994,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -6910,9 +7022,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -6930,9 +7050,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6950,9 +7078,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6970,9 +7106,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -7944,7 +8088,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -8681,10 +8825,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -8701,10 +8853,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8721,10 +8881,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -8741,10 +8909,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -8761,10 +8937,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -8781,10 +8965,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -8801,10 +8993,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -8821,10 +9021,18 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -8841,10 +9049,18 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -8861,10 +9077,18 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
+      <c r="D44" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -8881,10 +9105,18 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
+      <c r="A45" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
+      <c r="D45" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -8901,10 +9133,18 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
+      <c r="A46" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
+      <c r="D46" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -8921,10 +9161,18 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
+      <c r="A47" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
+      <c r="D47" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -12263,9 +12511,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -12283,9 +12539,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12303,9 +12567,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12323,9 +12595,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -12343,9 +12623,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -12363,9 +12651,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -12383,10 +12679,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -14054,9 +14358,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -14074,9 +14390,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -14094,9 +14418,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -14114,9 +14446,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -14134,9 +14474,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -14154,10 +14502,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14174,10 +14530,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -14194,10 +14558,18 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -14214,10 +14586,18 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -14234,7 +14614,11 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
       <c r="D44" s="28" t="n"/>
@@ -15108,7 +15492,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -15845,9 +16229,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -15865,10 +16257,26 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -15885,8 +16293,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -15905,10 +16321,26 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -15925,9 +16357,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -17636,10 +18076,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -17656,10 +18108,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -17676,10 +18140,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -17696,7 +18172,11 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -19427,8 +19907,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -19447,9 +19935,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -19467,9 +19963,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -19487,10 +19995,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -19507,7 +20023,11 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
@@ -19527,8 +20047,16 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
@@ -19547,9 +20075,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -19567,10 +20107,18 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -19587,7 +20135,11 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
@@ -21218,8 +21770,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -21238,9 +21798,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -21258,9 +21830,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -21278,9 +21858,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -22272,7 +22860,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -23009,8 +23597,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -23029,10 +23625,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -23049,10 +23653,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -23069,10 +23681,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -23089,10 +23709,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -23109,10 +23737,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -23129,9 +23765,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -24800,8 +25444,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -24820,9 +25472,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -24840,9 +25504,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -24860,9 +25536,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -24880,10 +25564,26 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -24900,10 +25600,22 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -24920,9 +25632,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -24940,9 +25664,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -24960,9 +25692,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -24980,10 +25720,18 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
+      <c r="D44" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -26591,9 +27339,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -26611,10 +27371,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -26631,10 +27399,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -26651,10 +27427,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -3310,15 +3310,15 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="28" t="n"/>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -3338,20 +3338,16 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="B36" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="28" t="n"/>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3370,16 +3366,16 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -3396,17 +3392,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -3424,18 +3412,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -3452,18 +3432,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5269,16 +5241,16 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
-      <c r="B39" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -5295,18 +5267,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -7022,17 +6986,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -7050,17 +7006,9 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -7078,17 +7026,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -7106,17 +7046,9 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -8855,7 +8787,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
@@ -8883,7 +8815,7 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
@@ -8911,7 +8843,7 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
@@ -8939,7 +8871,7 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B39" s="28" t="n"/>
@@ -8967,7 +8899,7 @@
     <row r="40">
       <c r="A40" s="28" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B40" s="28" t="n"/>
@@ -8995,7 +8927,7 @@
     <row r="41">
       <c r="A41" s="28" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B41" s="28" t="n"/>
@@ -9023,7 +8955,7 @@
     <row r="42">
       <c r="A42" s="28" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B42" s="28" t="n"/>
@@ -9051,7 +8983,7 @@
     <row r="43">
       <c r="A43" s="28" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B43" s="28" t="n"/>
@@ -9079,7 +9011,7 @@
     <row r="44">
       <c r="A44" s="28" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B44" s="28" t="n"/>
@@ -9105,18 +9037,10 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
+      <c r="A45" s="28" t="n"/>
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D45" s="28" t="n"/>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -9133,18 +9057,10 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
+      <c r="A46" s="28" t="n"/>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D46" s="28" t="n"/>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -9161,18 +9077,10 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
+      <c r="A47" s="28" t="n"/>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D47" s="28" t="n"/>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -12513,16 +12421,16 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -12539,17 +12447,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12567,17 +12467,9 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12595,17 +12487,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -12623,17 +12507,9 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -12651,17 +12527,9 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -12679,18 +12547,10 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -14370,7 +14230,7 @@
       </c>
       <c r="C35" s="28" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="28" t="n"/>
@@ -14392,16 +14252,16 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14420,16 +14280,16 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -14448,16 +14308,16 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="28" t="n"/>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14476,16 +14336,16 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D39" s="28" t="n"/>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -14502,18 +14362,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14530,18 +14382,10 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -14558,18 +14402,10 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -14586,18 +14422,10 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -14614,11 +14442,7 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
+      <c r="A44" s="28" t="n"/>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
       <c r="D44" s="28" t="n"/>
@@ -16274,7 +16098,7 @@
       </c>
       <c r="D36" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E36" s="28" t="n"/>
@@ -16331,16 +16155,8 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -16363,11 +16179,7 @@
         </is>
       </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -18081,15 +17893,11 @@
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E35" s="28" t="n"/>
@@ -18121,7 +17929,7 @@
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E36" s="28" t="n"/>
@@ -18140,22 +17948,10 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -18172,11 +17968,7 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -19943,7 +19735,7 @@
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="28" t="n"/>
@@ -19968,14 +19760,10 @@
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="B37" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="28" t="n"/>
@@ -19997,16 +19785,12 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -20025,10 +19809,14 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="B39" s="28" t="n"/>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -20047,16 +19835,8 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
-      <c r="B40" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
+      <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
@@ -20075,21 +19855,9 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
-      <c r="B41" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -20107,18 +19875,10 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -20135,11 +19895,7 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
@@ -21770,16 +21526,8 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="28" t="n"/>
+      <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -21798,21 +21546,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="B36" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -21830,17 +21566,9 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -21858,17 +21586,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23599,16 +23319,16 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -23627,16 +23347,12 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -23653,18 +23369,10 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -23681,18 +23389,10 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -23709,18 +23409,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -23737,18 +23429,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -23765,17 +23449,9 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -25446,7 +25122,7 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="B35" s="29" t="inlineStr">
@@ -25474,7 +25150,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B36" s="29" t="inlineStr">
@@ -25482,12 +25158,12 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -25506,7 +25182,7 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B37" s="29" t="inlineStr">
@@ -25514,12 +25190,12 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -25538,15 +25214,15 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -25566,24 +25242,16 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B39" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="inlineStr">
         <is>
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -25602,20 +25270,16 @@
     <row r="40">
       <c r="A40" s="28" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
-      <c r="B40" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -25634,20 +25298,16 @@
     <row r="41">
       <c r="A41" s="28" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="B41" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D41" s="28" t="n"/>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -25664,17 +25324,9 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="28" t="n"/>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -25692,17 +25344,9 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -25720,18 +25364,10 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
+      <c r="A44" s="28" t="n"/>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D44" s="28" t="n"/>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -27349,11 +26985,7 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -27373,7 +27005,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
@@ -27399,18 +27031,10 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -27427,18 +27051,10 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -7,19 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2.01 Développement orienté objet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R2.02 Développement d'applications avec IHM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R2.01 Développement orienté obj" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R2.02 Développement d'applicati" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="R2.03 Qualité de développement" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R2.04 Communication et fonctionnement bas niveau" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R2.05 Introduction aux services réseaux" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R2.06 Exploitation d'une base de données" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R2.04 Communication et fonction" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R2.05 Introduction aux services" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R2.06 Exploitation d'une base d" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="R2.07 Graphes" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R2.08 Outils numériques pour les statistiques descriptives" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R2.08 Outils numériques pour le" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R2.09 Méthodes numériques" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R2.10 Introduction à la gestion des systèmes d'information" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R2.10 Introduction à la gestion" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="R2.11 Introduction au droit" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R2.12 Anglais d'entreprise" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R2.13 Communication avec le milieu professionnel" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R2.13 Communication avec le mil" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="R2.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -3276,16 +3276,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3304,21 +3296,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3336,17 +3316,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3364,17 +3336,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3392,18 +3356,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -3420,18 +3376,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5087,21 +5035,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5119,16 +5055,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -5147,18 +5075,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5175,16 +5095,8 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -5203,16 +5115,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -5231,18 +5135,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6898,16 +6794,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6926,17 +6814,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6954,17 +6834,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8681,18 +8553,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8709,18 +8573,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8737,18 +8593,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8765,18 +8613,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8793,18 +8633,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8821,18 +8653,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8849,18 +8673,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8877,18 +8693,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8905,18 +8713,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8933,18 +8733,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -8961,18 +8753,10 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
+      <c r="A45" s="27" t="n"/>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -12287,17 +12071,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12315,17 +12091,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -12343,18 +12111,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14070,21 +13830,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14102,18 +13850,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -14130,18 +13870,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14158,18 +13890,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14186,18 +13910,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -15873,17 +15589,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15901,26 +15609,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15937,16 +15629,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -15965,26 +15649,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -16001,17 +15669,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -17688,18 +17348,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17716,22 +17368,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19467,16 +19107,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19495,17 +19127,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19523,17 +19147,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -19551,18 +19167,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19579,11 +19187,7 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -19603,16 +19207,8 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
@@ -19631,21 +19227,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-13</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -19663,18 +19247,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -19691,11 +19267,7 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
@@ -21294,17 +20866,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23061,18 +22625,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -23089,18 +22645,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -23117,18 +22665,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -23145,17 +22685,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -24852,16 +24384,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -24880,16 +24404,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -24908,16 +24424,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -24936,17 +24444,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -24964,22 +24464,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -24996,22 +24484,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -25028,21 +24504,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -25060,17 +24524,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -25088,17 +24544,9 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -25116,18 +24564,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -26703,16 +26143,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -26731,18 +26163,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -3276,8 +3276,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3296,9 +3304,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3316,9 +3336,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3336,9 +3364,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3356,10 +3392,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -3376,10 +3420,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5035,9 +5087,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5055,8 +5119,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -5075,10 +5147,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5095,8 +5175,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -5115,8 +5203,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -5135,10 +5231,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6794,8 +6898,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6814,9 +6926,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6834,9 +6954,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6854,9 +6982,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6874,9 +7010,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8553,10 +8697,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8573,10 +8725,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8593,10 +8753,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8613,10 +8781,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8633,10 +8809,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8653,10 +8837,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8673,10 +8865,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8693,10 +8893,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8713,10 +8921,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8733,10 +8949,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -8753,10 +8977,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -8773,10 +9005,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -8793,10 +9033,18 @@
       <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="n"/>
+      <c r="A47" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
       <c r="B47" s="27" t="n"/>
       <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="n"/>
+      <c r="D47" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E47" s="27" t="n"/>
       <c r="F47" s="27" t="n"/>
       <c r="G47" s="27" t="n"/>
@@ -12071,9 +12319,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12091,9 +12347,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -12111,9 +12375,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12131,9 +12403,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12151,9 +12431,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -12171,9 +12459,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -12191,10 +12487,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -13830,9 +14134,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -13850,9 +14166,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13870,9 +14194,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -13890,9 +14222,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -13910,9 +14250,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -13930,10 +14278,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -13950,10 +14306,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -13970,10 +14334,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -13990,10 +14362,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -14010,7 +14390,11 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="n"/>
@@ -15589,9 +15973,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15609,10 +16001,26 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15629,8 +16037,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -15649,10 +16065,26 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15669,9 +16101,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -17348,10 +17788,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17368,10 +17820,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17388,10 +17852,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17408,7 +17884,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -19107,8 +19587,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19127,9 +19615,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19147,9 +19643,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -19167,10 +19675,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19187,7 +19703,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -19207,8 +19727,16 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
@@ -19227,9 +19755,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -19247,10 +19787,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -19267,7 +19815,11 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
@@ -20866,8 +21418,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -20886,9 +21446,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20906,9 +21478,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20926,9 +21506,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -22625,8 +23213,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -22645,10 +23241,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -22665,10 +23269,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -22685,10 +23297,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -22705,10 +23325,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -22725,10 +23353,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -22745,9 +23381,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -24384,8 +25028,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -24404,9 +25056,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24424,9 +25088,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -24444,9 +25120,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -24464,10 +25148,26 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -24484,10 +25184,22 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -24504,9 +25216,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -24524,9 +25248,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -24544,9 +25276,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -24564,10 +25304,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -26143,9 +26891,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26163,10 +26923,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -26183,10 +26951,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26203,10 +26979,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -7,19 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2.01 Développement orienté obj" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R2.02 Développement d'applicati" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R2.01 Développement orienté objet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R2.02 Développement d'applications avec IHM" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="R2.03 Qualité de développement" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R2.04 Communication et fonction" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R2.05 Introduction aux services" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R2.06 Exploitation d'une base d" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R2.04 Communication et fonctionnement bas niveau" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R2.05 Introduction aux services réseaux" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R2.06 Exploitation d'une base de données" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="R2.07 Graphes" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R2.08 Outils numériques pour le" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R2.08 Outils numériques pour les statistiques descriptives" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R2.09 Méthodes numériques" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R2.10 Introduction à la gestion" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R2.10 Introduction à la gestion des systèmes d'information" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="R2.11 Introduction au droit" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R2.12 Anglais d'entreprise" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R2.13 Communication avec le mil" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R2.13 Communication avec le milieu professionnel" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="R2.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -3344,7 +3344,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -3372,7 +3372,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -3401,7 +3401,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -5094,12 +5094,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -5126,10 +5126,14 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="n"/>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5149,14 +5153,18 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -5177,16 +5185,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5205,15 +5213,19 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="n"/>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5233,16 +5245,20 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5259,9 +5275,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -5279,10 +5303,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -5299,10 +5331,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -6905,7 +6945,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -6928,13 +6968,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -6956,13 +6996,13 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -6984,13 +7024,13 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -7012,13 +7052,13 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -7038,9 +7078,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -7058,9 +7106,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle Machine</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8706,7 +8762,7 @@
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -8734,7 +8790,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -8762,7 +8818,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -8790,7 +8846,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -8818,7 +8874,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -8846,7 +8902,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -8874,7 +8930,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -8902,7 +8958,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -8930,7 +8986,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -8958,7 +9014,7 @@
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -8986,7 +9042,7 @@
       <c r="C45" s="27" t="n"/>
       <c r="D45" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
@@ -9014,7 +9070,7 @@
       <c r="C46" s="27" t="n"/>
       <c r="D46" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E46" s="27" t="n"/>
@@ -9042,7 +9098,7 @@
       <c r="C47" s="27" t="n"/>
       <c r="D47" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E47" s="27" t="n"/>
@@ -12327,7 +12383,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -12355,7 +12411,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -12383,7 +12439,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -12411,7 +12467,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -12439,7 +12495,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -12467,7 +12523,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -12496,7 +12552,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -14141,12 +14197,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -14171,10 +14227,14 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -14199,10 +14259,14 @@
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="B37" s="28" t="n"/>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -14227,10 +14291,14 @@
           <t>2024-02-12</t>
         </is>
       </c>
-      <c r="B38" s="27" t="n"/>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -14255,10 +14323,14 @@
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="B39" s="27" t="n"/>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -14287,7 +14359,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -14315,7 +14387,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -14343,7 +14415,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -14371,7 +14443,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -14392,12 +14464,16 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H - Salle Machine</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -14414,7 +14490,11 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
       <c r="D45" s="27" t="n"/>
@@ -15978,10 +16058,14 @@
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -16008,17 +16092,17 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -16044,10 +16128,14 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="n"/>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H - Salle Machine</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -16072,17 +16160,17 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -16109,7 +16197,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -17795,13 +17883,13 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -17827,13 +17915,13 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -17860,12 +17948,12 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -19594,7 +19682,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -19620,10 +19708,14 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -19650,12 +19742,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -19684,7 +19776,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -19734,7 +19826,7 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C40" s="27" t="n"/>
@@ -19762,12 +19854,12 @@
       </c>
       <c r="B41" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -19796,7 +19888,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -21425,7 +21517,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -21453,15 +21545,19 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+          <t>TD 1H - Salle Machine</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 1H - Salle Machine</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21486,10 +21582,14 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="n"/>
+          <t>TD 1H - Salle Machine</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 1H - Salle Machine</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -21514,10 +21614,14 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="n"/>
+          <t>TD 1H - Salle Machine</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 1H - Salle Machine</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -21534,7 +21638,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -23220,7 +23328,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -23246,11 +23354,15 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -23274,11 +23386,15 @@
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="B37" s="28" t="n"/>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -23306,7 +23422,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -23334,7 +23450,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -23362,7 +23478,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -23389,7 +23505,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -25035,7 +25151,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -25063,12 +25179,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -25095,12 +25211,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -25128,7 +25244,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -25155,17 +25271,17 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -25191,13 +25307,17 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="n"/>
+          <t>Amphi 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -25223,12 +25343,12 @@
       </c>
       <c r="B41" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -25256,7 +25376,7 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D42" s="27" t="n"/>
@@ -25284,7 +25404,7 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
@@ -25313,7 +25433,7 @@
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -26898,12 +27018,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -26932,7 +27052,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -26960,7 +27080,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -26981,16 +27101,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 1H - Salle TD/Amphi</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -27007,10 +27127,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 1H - Salle Machine</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -27027,10 +27155,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 1H - Salle Machine</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -7,20 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2.01 Développement orienté objet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R2.02 Développement d'applications avec IHM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R2.03 Qualité de développement" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R2.04 Communication et fonctionnement bas niveau" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R2.05 Introduction aux services réseaux" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R2.06 Exploitation d'une base de données" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R2.07 Graphes" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R2.08 Outils numériques pour les statistiques descriptives" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R2.09 Méthodes numériques" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R2.10 Introduction à la gestion des systèmes d'information" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R2.11 Introduction au droit" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R2.12 Anglais d'entreprise" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R2.13 Communication avec le milieu professionnel" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R2.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R2.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R2.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R2.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R2.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R2.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R2.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R2.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R2.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R2.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R2.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R2.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R2.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R2.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R2.14" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -3344,7 +3344,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -3372,7 +3372,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -3401,7 +3401,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -5094,12 +5094,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -5126,12 +5126,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -5159,12 +5159,12 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -5192,7 +5192,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -5250,12 +5250,12 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -5283,7 +5283,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -5312,7 +5312,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -5340,7 +5340,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -6974,7 +6974,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -7002,7 +7002,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -7030,7 +7030,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -7058,7 +7058,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -7086,7 +7086,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -7114,7 +7114,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -8762,7 +8762,7 @@
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -8790,7 +8790,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -8818,7 +8818,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -8846,7 +8846,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -8874,7 +8874,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -8902,7 +8902,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -8930,7 +8930,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -8958,7 +8958,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -8986,7 +8986,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -9014,7 +9014,7 @@
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -9042,7 +9042,7 @@
       <c r="C45" s="27" t="n"/>
       <c r="D45" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
@@ -9070,7 +9070,7 @@
       <c r="C46" s="27" t="n"/>
       <c r="D46" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E46" s="27" t="n"/>
@@ -9098,7 +9098,7 @@
       <c r="C47" s="27" t="n"/>
       <c r="D47" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E47" s="27" t="n"/>
@@ -12383,7 +12383,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -12411,7 +12411,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -12439,7 +12439,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -12467,7 +12467,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -12495,7 +12495,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -12523,7 +12523,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -12552,7 +12552,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -14197,12 +14197,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -14229,12 +14229,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -14261,12 +14261,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -14293,12 +14293,12 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -14325,12 +14325,12 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -14359,7 +14359,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -14387,7 +14387,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -14415,7 +14415,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -14443,7 +14443,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -14471,7 +14471,7 @@
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -15452,7 +15452,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>IIIIII</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -15610,7 +15614,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>IIIIII</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -15682,8 +15690,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>IIIIII</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -15802,8 +15816,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>IIIIII</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -15908,8 +15928,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>IIIIII</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -16060,12 +16086,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -16092,17 +16118,17 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -16128,12 +16154,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -16160,17 +16186,17 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -16197,7 +16223,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -16627,7 +16653,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>IIIIII</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -16642,10 +16672,18 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>24</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
@@ -17883,13 +17921,13 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -17915,13 +17953,13 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -17948,12 +17986,12 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -19682,7 +19720,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -19710,12 +19748,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -19742,12 +19780,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -19776,7 +19814,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -19826,7 +19864,7 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C40" s="27" t="n"/>
@@ -19854,12 +19892,12 @@
       </c>
       <c r="B41" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -19888,7 +19926,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -21517,7 +21555,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -21545,17 +21583,17 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -21582,12 +21620,12 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -21614,12 +21652,12 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -22584,7 +22622,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -23328,7 +23366,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -23356,13 +23394,13 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -23388,13 +23426,13 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -23422,7 +23460,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -23450,7 +23488,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -23478,7 +23516,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -23505,7 +23543,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -25151,7 +25189,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -25179,12 +25217,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -25211,12 +25249,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -25244,7 +25282,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -25271,17 +25309,17 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -25307,17 +25345,17 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -25343,12 +25381,12 @@
       </c>
       <c r="B41" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -25376,7 +25414,7 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D42" s="27" t="n"/>
@@ -25404,7 +25442,7 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
@@ -25433,7 +25471,7 @@
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -27018,12 +27056,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -27052,7 +27090,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -27080,7 +27118,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -27107,7 +27145,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -27136,7 +27174,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -27164,7 +27202,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -14498,7 +14498,11 @@
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
       <c r="D45" s="27" t="n"/>
-      <c r="E45" s="27" t="n"/>
+      <c r="E45" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
       <c r="H45" s="27" t="n"/>
@@ -15316,7 +15320,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -16227,7 +16231,11 @@
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -17930,7 +17938,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E35" s="27" t="n"/>
+      <c r="E35" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
       <c r="H35" s="27" t="n"/>
@@ -18018,7 +18030,11 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -19841,7 +19857,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -19953,7 +19973,11 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
@@ -21684,7 +21708,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -22622,7 +22650,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -23547,7 +23575,11 @@
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S2.xlsx
+++ b/SAE_3_01/fichiers genere/S2.xlsx
@@ -19128,7 +19128,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -19286,7 +19290,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -19358,8 +19366,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -19478,8 +19492,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -19584,8 +19604,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -20323,7 +20349,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>GITHUB</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -20338,10 +20368,18 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>24</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
@@ -20971,7 +21009,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>un nom de prof qui est pas trop sensible</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -21129,7 +21171,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>un nom de prof qui est pas trop sensible</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -21201,8 +21247,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>un nom de prof qui est pas trop sensible</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -21321,8 +21373,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>un nom de prof qui est pas trop sensible</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -21427,8 +21485,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>un nom de prof qui est pas trop sensible</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -22138,7 +22202,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>UN NOM DE PROF QUI EST PAS TROP SENSIBLE</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -22153,10 +22221,18 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>12</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
@@ -22786,7 +22862,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Alain mais pas casali</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -22805,7 +22885,11 @@
       <c r="R8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="n"/>
+      <c r="A9" s="28" t="inlineStr">
+        <is>
+          <t>Morancey mais pas vraiment morancey</t>
+        </is>
+      </c>
       <c r="C9" s="27" t="n"/>
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="27" t="n"/>
@@ -22944,7 +23028,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Alain mais pas casali</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -22972,7 +23060,11 @@
       <c r="R15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Morancey mais pas vraiment morancey</t>
+        </is>
+      </c>
       <c r="B16" s="11" t="n"/>
       <c r="C16" s="27" t="n"/>
       <c r="D16" s="27" t="n"/>
@@ -23016,8 +23108,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Alain mais pas casali</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -23036,8 +23134,14 @@
       <c r="R18" s="27" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Morancey mais pas vraiment morancey</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="C19" s="27" t="n"/>
       <c r="D19" s="37" t="inlineStr">
         <is>
@@ -23136,8 +23240,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Alain mais pas casali</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -23156,8 +23266,14 @@
       <c r="R23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Morancey mais pas vraiment morancey</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
@@ -23242,8 +23358,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Alain mais pas casali</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -23265,8 +23387,14 @@
       <c r="R28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Morancey mais pas vraiment morancey</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -23965,7 +24093,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>ALAIN MAIS PAS CASALI</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -23980,16 +24112,28 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>60</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="n"/>
+      <c r="A57" s="68" t="inlineStr">
+        <is>
+          <t>MORANCEY MAIS PAS VRAIMENT MORANCEY</t>
+        </is>
+      </c>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
@@ -24004,10 +24148,18 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n"/>
-      <c r="M57" s="24" t="n"/>
-      <c r="N57" s="21" t="n"/>
-      <c r="O57" s="24" t="n"/>
+      <c r="L57" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M57" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="O57" s="24" t="n">
+        <v>20</v>
+      </c>
       <c r="P57" s="22" t="n"/>
       <c r="Q57" s="23" t="n"/>
       <c r="R57" s="23" t="n"/>
